--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.088647601202894</v>
+        <v>1.08864760120278</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1976474475754628</v>
+        <v>0.1976474475756902</v>
       </c>
       <c r="E2">
-        <v>0.06670069887714902</v>
+        <v>0.06670069887714547</v>
       </c>
       <c r="F2">
         <v>5.128085478229536</v>
@@ -433,13 +433,13 @@
         <v>0.2728063389196613</v>
       </c>
       <c r="I2">
-        <v>0.01228588432469158</v>
+        <v>0.01228588432467115</v>
       </c>
       <c r="J2">
-        <v>4.78563200736906</v>
+        <v>4.785632007369088</v>
       </c>
       <c r="K2">
-        <v>2.638046241169491</v>
+        <v>2.638046241169519</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.938925873235803</v>
+        <v>0.9389258732358599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1654102125252592</v>
+        <v>0.1654102125249608</v>
       </c>
       <c r="E3">
-        <v>0.05736538818049652</v>
+        <v>0.05736538818053205</v>
       </c>
       <c r="F3">
-        <v>4.37640944796857</v>
+        <v>4.376409447968541</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2817090523756676</v>
+        <v>0.2817090523756534</v>
       </c>
       <c r="I3">
-        <v>0.01211214765062207</v>
+        <v>0.01211214765062785</v>
       </c>
       <c r="J3">
-        <v>4.075687546093747</v>
+        <v>4.07568754609369</v>
       </c>
       <c r="K3">
-        <v>2.240713235826945</v>
+        <v>2.240713235826973</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8484585075875373</v>
+        <v>0.8484585075875657</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.147044401817098</v>
+        <v>0.1470444018169559</v>
       </c>
       <c r="E4">
-        <v>0.05191466921331056</v>
+        <v>0.05191466921334786</v>
       </c>
       <c r="F4">
-        <v>3.942829839400758</v>
+        <v>3.94282983940073</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0.2894784936755599</v>
       </c>
       <c r="I4">
-        <v>0.01202842499145929</v>
+        <v>0.01202842499148193</v>
       </c>
       <c r="J4">
-        <v>3.655042735797451</v>
+        <v>3.655042735797394</v>
       </c>
       <c r="K4">
         <v>2.006364594593023</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8118854657185466</v>
+        <v>0.8118854657186034</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1398531102393008</v>
+        <v>0.1398531102390734</v>
       </c>
       <c r="E5">
-        <v>0.04974844045348448</v>
+        <v>0.04974844045352178</v>
       </c>
       <c r="F5">
-        <v>3.77194278309571</v>
+        <v>3.771942783095767</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0.29315535558516</v>
       </c>
       <c r="I5">
-        <v>0.0119991712273535</v>
+        <v>0.01199917122735794</v>
       </c>
       <c r="J5">
         <v>3.486704770737958</v>
       </c>
       <c r="K5">
-        <v>1.912814881629842</v>
+        <v>1.912814881629856</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8058282959128462</v>
+        <v>0.8058282959128746</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1386749964153466</v>
+        <v>0.1386749964155456</v>
       </c>
       <c r="E6">
-        <v>0.04939166321027066</v>
+        <v>0.04939166321030797</v>
       </c>
       <c r="F6">
         <v>3.743885720512509</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2937949639898569</v>
+        <v>0.2937949639898534</v>
       </c>
       <c r="I6">
-        <v>0.01199458519035579</v>
+        <v>0.01199458519035623</v>
       </c>
       <c r="J6">
         <v>3.458918707318304</v>
       </c>
       <c r="K6">
-        <v>1.897386670325673</v>
+        <v>1.897386670325687</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8479641734405448</v>
+        <v>0.8479641734405163</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1469463097299837</v>
+        <v>0.1469463097300689</v>
       </c>
       <c r="E7">
-        <v>0.05188525042990655</v>
+        <v>0.05188525042990833</v>
       </c>
       <c r="F7">
         <v>3.940503172572278</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2895260949591716</v>
+        <v>0.2895260949591538</v>
       </c>
       <c r="I7">
-        <v>0.01202801180324364</v>
+        <v>0.01202801180322854</v>
       </c>
       <c r="J7">
-        <v>3.652760909896784</v>
+        <v>3.652760909896756</v>
       </c>
       <c r="K7">
-        <v>2.005095614518169</v>
+        <v>2.005095614518225</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036670881271476</v>
+        <v>1.036670881271391</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1861914582803053</v>
+        <v>0.18619145828049</v>
       </c>
       <c r="E8">
-        <v>0.06341288922800814</v>
+        <v>0.06341288922794419</v>
       </c>
       <c r="F8">
         <v>4.862288514203897</v>
@@ -661,13 +661,13 @@
         <v>0.2753527683521924</v>
       </c>
       <c r="I8">
-        <v>0.01222058832791628</v>
+        <v>0.01222058832792783</v>
       </c>
       <c r="J8">
-        <v>4.537168899787986</v>
+        <v>4.537168899788014</v>
       </c>
       <c r="K8">
-        <v>2.498738135564253</v>
+        <v>2.498738135564295</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.422579281778269</v>
+        <v>1.422579281778297</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2784015525708412</v>
+        <v>0.278401552570827</v>
       </c>
       <c r="E9">
-        <v>0.08921125075224978</v>
+        <v>0.08921125075225689</v>
       </c>
       <c r="F9">
-        <v>6.963604701676502</v>
+        <v>6.963604701676473</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.2697661847374917</v>
+        <v>0.2697661847374846</v>
       </c>
       <c r="I9">
-        <v>0.01283942343260547</v>
+        <v>0.01283942343263345</v>
       </c>
       <c r="J9">
-        <v>6.437207557414212</v>
+        <v>6.437207557414183</v>
       </c>
       <c r="K9">
-        <v>3.570532488846681</v>
+        <v>3.570532488846652</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723800841521978</v>
+        <v>1.723800841522063</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3632655868222798</v>
+        <v>0.3632655868218535</v>
       </c>
       <c r="E10">
-        <v>0.1121048862066161</v>
+        <v>0.1121048862066338</v>
       </c>
       <c r="F10">
-        <v>8.827561934489125</v>
+        <v>8.827561934489211</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2867665736266147</v>
+        <v>0.2867665736266432</v>
       </c>
       <c r="I10">
-        <v>0.01357311526352856</v>
+        <v>0.01357311526349658</v>
       </c>
       <c r="J10">
         <v>8.021913871374892</v>
@@ -760,28 +760,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4085161981109025</v>
+        <v>0.4085161981108882</v>
       </c>
       <c r="E11">
-        <v>0.1241566237604346</v>
+        <v>0.1241566237604026</v>
       </c>
       <c r="F11">
-        <v>9.796696076426628</v>
+        <v>9.796696076426684</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3017945183738888</v>
+        <v>0.3017945183738675</v>
       </c>
       <c r="I11">
-        <v>0.01402386192317451</v>
+        <v>0.01402386192316341</v>
       </c>
       <c r="J11">
-        <v>8.816012431911815</v>
+        <v>8.816012431911844</v>
       </c>
       <c r="K11">
-        <v>4.931892053202517</v>
+        <v>4.931892053202546</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.923186301432168</v>
+        <v>1.923186301432281</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0.4270162808339961</v>
       </c>
       <c r="E12">
-        <v>0.1290690363833988</v>
+        <v>0.1290690363833953</v>
       </c>
       <c r="F12">
         <v>10.18820441945471</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3089005047868056</v>
+        <v>0.3089005047867985</v>
       </c>
       <c r="I12">
-        <v>0.01422008789449913</v>
+        <v>0.01422008789449869</v>
       </c>
       <c r="J12">
-        <v>9.131669431012853</v>
+        <v>9.131669431012796</v>
       </c>
       <c r="K12">
-        <v>5.114049920422019</v>
+        <v>5.114049920421991</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.91111917544535</v>
+        <v>1.911119175445208</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4229623337170807</v>
+        <v>0.4229623337176918</v>
       </c>
       <c r="E13">
-        <v>0.1279930323295986</v>
+        <v>0.127993032329659</v>
       </c>
       <c r="F13">
-        <v>10.10264241837234</v>
+        <v>10.1026424183722</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3072993109901461</v>
+        <v>0.3072993109901319</v>
       </c>
       <c r="I13">
-        <v>0.01417649078257499</v>
+        <v>0.01417649078256566</v>
       </c>
       <c r="J13">
-        <v>9.062926503876156</v>
+        <v>9.062926503876071</v>
       </c>
       <c r="K13">
-        <v>5.074351118485936</v>
+        <v>5.074351118485907</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.872019500239162</v>
+        <v>1.872019500239247</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4100077356113161</v>
+        <v>0.4100077356111029</v>
       </c>
       <c r="E14">
-        <v>0.1245529021239662</v>
+        <v>0.1245529021240053</v>
       </c>
       <c r="F14">
-        <v>9.828360642279733</v>
+        <v>9.82836064227979</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.302348016682636</v>
+        <v>0.3023480166826502</v>
       </c>
       <c r="I14">
-        <v>0.01403942387092272</v>
+        <v>0.01403942387096091</v>
       </c>
       <c r="J14">
-        <v>8.841648603725247</v>
+        <v>8.841648603725361</v>
       </c>
       <c r="K14">
-        <v>4.946673327673352</v>
+        <v>4.946673327673324</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.848255400325797</v>
+        <v>1.848255400325826</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0.4022661693527283</v>
       </c>
       <c r="E15">
-        <v>0.1224955705500079</v>
+        <v>0.1224955705499262</v>
       </c>
       <c r="F15">
-        <v>9.663819373408131</v>
+        <v>9.663819373408103</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2995134271779847</v>
+        <v>0.2995134271779918</v>
       </c>
       <c r="I15">
-        <v>0.01395914335006143</v>
+        <v>0.01395914335006099</v>
       </c>
       <c r="J15">
-        <v>8.708225661779096</v>
+        <v>8.708225661779068</v>
       </c>
       <c r="K15">
         <v>4.869769265125001</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714573321010164</v>
+        <v>1.714573321010135</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,25 +953,25 @@
         <v>0.360472586526754</v>
       </c>
       <c r="E16">
-        <v>0.1113585875789447</v>
+        <v>0.111358587578934</v>
       </c>
       <c r="F16">
-        <v>8.767197095722111</v>
+        <v>8.767197095722196</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2859588180072095</v>
+        <v>0.2859588180071952</v>
       </c>
       <c r="I16">
-        <v>0.01354664474033473</v>
+        <v>0.01354664474029788</v>
       </c>
       <c r="J16">
         <v>7.971822060254055</v>
       </c>
       <c r="K16">
-        <v>4.44642971519778</v>
+        <v>4.446429715197837</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.634477376459131</v>
+        <v>1.634477376459188</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.336769033678749</v>
+        <v>0.3367690336789195</v>
       </c>
       <c r="E17">
         <v>0.1050093520836839</v>
@@ -1003,13 +1003,13 @@
         <v>0.2797239289305722</v>
       </c>
       <c r="I17">
-        <v>0.01332831194906836</v>
+        <v>0.01332831194909767</v>
       </c>
       <c r="J17">
         <v>7.541353606694514</v>
       </c>
       <c r="K17">
-        <v>4.199859001440899</v>
+        <v>4.199859001440842</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.589004477233999</v>
+        <v>1.589004477233772</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3237283005902611</v>
+        <v>0.3237283005906875</v>
       </c>
       <c r="E18">
-        <v>0.1015024195049534</v>
+        <v>0.1015024195049499</v>
       </c>
       <c r="F18">
-        <v>7.966945113201547</v>
+        <v>7.966945113201575</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2767955447366717</v>
+        <v>0.2767955447367001</v>
       </c>
       <c r="I18">
-        <v>0.01321302719988005</v>
+        <v>0.01321302719990625</v>
       </c>
       <c r="J18">
-        <v>7.300299903220235</v>
+        <v>7.300299903220207</v>
       </c>
       <c r="K18">
-        <v>4.062078821831278</v>
+        <v>4.06207882183125</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.573701794524396</v>
+        <v>1.573701794524567</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.319405311803834</v>
+        <v>0.3194053118034503</v>
       </c>
       <c r="E19">
-        <v>0.1003373681358219</v>
+        <v>0.1003373681358433</v>
       </c>
       <c r="F19">
-        <v>7.872036616316592</v>
+        <v>7.872036616316649</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2759083819870867</v>
+        <v>0.2759083819870796</v>
       </c>
       <c r="I19">
-        <v>0.01317557152004012</v>
+        <v>0.0131755715200601</v>
       </c>
       <c r="J19">
         <v>7.219703406814375</v>
       </c>
       <c r="K19">
-        <v>4.016059613132626</v>
+        <v>4.016059613132654</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.642939871010554</v>
+        <v>1.642939871010526</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3392286080398179</v>
+        <v>0.3392286080402158</v>
       </c>
       <c r="E20">
-        <v>0.1056695965445833</v>
+        <v>0.1056695965445797</v>
       </c>
       <c r="F20">
         <v>8.305921078660049</v>
@@ -1117,13 +1117,13 @@
         <v>0.2803174340288805</v>
       </c>
       <c r="I20">
-        <v>0.01335044083293679</v>
+        <v>0.01335044083293191</v>
       </c>
       <c r="J20">
         <v>7.586475265412616</v>
       </c>
       <c r="K20">
-        <v>4.225673024501702</v>
+        <v>4.225673024501731</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.883464434578514</v>
+        <v>1.883464434578428</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.41377142771546</v>
+        <v>0.4137714277152469</v>
       </c>
       <c r="E21">
-        <v>0.1255526626958243</v>
+        <v>0.1255526626958705</v>
       </c>
       <c r="F21">
-        <v>9.908183709501799</v>
+        <v>9.908183709501913</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0.3037600919658701</v>
       </c>
       <c r="I21">
-        <v>0.01407889339874124</v>
+        <v>0.01407889339870794</v>
       </c>
       <c r="J21">
-        <v>8.906190916579703</v>
+        <v>8.906190916579732</v>
       </c>
       <c r="K21">
-        <v>4.983897059561997</v>
+        <v>4.983897059562025</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.048673575815627</v>
+        <v>2.048673575815684</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4708270106681454</v>
+        <v>0.4708270106685575</v>
       </c>
       <c r="E22">
-        <v>0.1406901144461763</v>
+        <v>0.1406901144461159</v>
       </c>
       <c r="F22">
-        <v>11.10477429486576</v>
+        <v>11.10477429486582</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3276607753788738</v>
+        <v>0.3276607753788596</v>
       </c>
       <c r="I22">
-        <v>0.01471290763470057</v>
+        <v>0.0147129076346979</v>
       </c>
       <c r="J22">
         <v>9.859904735750348</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.959592630284618</v>
+        <v>1.959592630284703</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,25 +1219,25 @@
         <v>0.4394110544460545</v>
       </c>
       <c r="E23">
-        <v>0.1323577321081295</v>
+        <v>0.1323577321081366</v>
       </c>
       <c r="F23">
-        <v>10.44901356510033</v>
+        <v>10.44901356510036</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3139433808527414</v>
+        <v>0.3139433808527556</v>
       </c>
       <c r="I23">
-        <v>0.01435547712476248</v>
+        <v>0.01435547712478824</v>
       </c>
       <c r="J23">
-        <v>9.340392059495628</v>
+        <v>9.340392059495599</v>
       </c>
       <c r="K23">
-        <v>5.234684473014482</v>
+        <v>5.234684473014511</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.639112210116224</v>
+        <v>1.639112210116252</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3381148343060261</v>
+        <v>0.3381148343060545</v>
       </c>
       <c r="E24">
-        <v>0.1053706611141223</v>
+        <v>0.1053706611141827</v>
       </c>
       <c r="F24">
-        <v>8.281632476507355</v>
+        <v>8.281632476507269</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0.2800470914598847</v>
       </c>
       <c r="I24">
-        <v>0.01334040504533718</v>
+        <v>0.01334040504534917</v>
       </c>
       <c r="J24">
         <v>7.566056038677942</v>
       </c>
       <c r="K24">
-        <v>4.213990300896683</v>
+        <v>4.213990300896654</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.31579128326149</v>
+        <v>1.315791283261376</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2511719283742053</v>
+        <v>0.2511719283743332</v>
       </c>
       <c r="E25">
-        <v>0.08172782566192538</v>
+        <v>0.08172782566196446</v>
       </c>
       <c r="F25">
-        <v>6.351827384570385</v>
+        <v>6.351827384570413</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2682566811314295</v>
+        <v>0.2682566811314331</v>
       </c>
       <c r="I25">
-        <v>0.01263588668616888</v>
+        <v>0.01263588668621463</v>
       </c>
       <c r="J25">
-        <v>5.898079727717118</v>
+        <v>5.898079727717203</v>
       </c>
       <c r="K25">
-        <v>3.264936339774408</v>
+        <v>3.264936339774394</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.08864760120278</v>
+        <v>1.088647601202894</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1976474475756902</v>
+        <v>0.1976474475754628</v>
       </c>
       <c r="E2">
-        <v>0.06670069887714547</v>
+        <v>0.06670069887714902</v>
       </c>
       <c r="F2">
         <v>5.128085478229536</v>
@@ -433,13 +433,13 @@
         <v>0.2728063389196613</v>
       </c>
       <c r="I2">
-        <v>0.01228588432467115</v>
+        <v>0.01228588432469158</v>
       </c>
       <c r="J2">
-        <v>4.785632007369088</v>
+        <v>4.78563200736906</v>
       </c>
       <c r="K2">
-        <v>2.638046241169519</v>
+        <v>2.638046241169491</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9389258732358599</v>
+        <v>0.938925873235803</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1654102125249608</v>
+        <v>0.1654102125252592</v>
       </c>
       <c r="E3">
-        <v>0.05736538818053205</v>
+        <v>0.05736538818049652</v>
       </c>
       <c r="F3">
-        <v>4.376409447968541</v>
+        <v>4.37640944796857</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2817090523756534</v>
+        <v>0.2817090523756676</v>
       </c>
       <c r="I3">
-        <v>0.01211214765062785</v>
+        <v>0.01211214765062207</v>
       </c>
       <c r="J3">
-        <v>4.07568754609369</v>
+        <v>4.075687546093747</v>
       </c>
       <c r="K3">
-        <v>2.240713235826973</v>
+        <v>2.240713235826945</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8484585075875657</v>
+        <v>0.8484585075875373</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1470444018169559</v>
+        <v>0.147044401817098</v>
       </c>
       <c r="E4">
-        <v>0.05191466921334786</v>
+        <v>0.05191466921331056</v>
       </c>
       <c r="F4">
-        <v>3.94282983940073</v>
+        <v>3.942829839400758</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0.2894784936755599</v>
       </c>
       <c r="I4">
-        <v>0.01202842499148193</v>
+        <v>0.01202842499145929</v>
       </c>
       <c r="J4">
-        <v>3.655042735797394</v>
+        <v>3.655042735797451</v>
       </c>
       <c r="K4">
         <v>2.006364594593023</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8118854657186034</v>
+        <v>0.8118854657185466</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1398531102390734</v>
+        <v>0.1398531102393008</v>
       </c>
       <c r="E5">
-        <v>0.04974844045352178</v>
+        <v>0.04974844045348448</v>
       </c>
       <c r="F5">
-        <v>3.771942783095767</v>
+        <v>3.77194278309571</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0.29315535558516</v>
       </c>
       <c r="I5">
-        <v>0.01199917122735794</v>
+        <v>0.0119991712273535</v>
       </c>
       <c r="J5">
         <v>3.486704770737958</v>
       </c>
       <c r="K5">
-        <v>1.912814881629856</v>
+        <v>1.912814881629842</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8058282959128746</v>
+        <v>0.8058282959128462</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1386749964155456</v>
+        <v>0.1386749964153466</v>
       </c>
       <c r="E6">
-        <v>0.04939166321030797</v>
+        <v>0.04939166321027066</v>
       </c>
       <c r="F6">
         <v>3.743885720512509</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2937949639898534</v>
+        <v>0.2937949639898569</v>
       </c>
       <c r="I6">
-        <v>0.01199458519035623</v>
+        <v>0.01199458519035579</v>
       </c>
       <c r="J6">
         <v>3.458918707318304</v>
       </c>
       <c r="K6">
-        <v>1.897386670325687</v>
+        <v>1.897386670325673</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8479641734405163</v>
+        <v>0.8479641734405448</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1469463097300689</v>
+        <v>0.1469463097299837</v>
       </c>
       <c r="E7">
-        <v>0.05188525042990833</v>
+        <v>0.05188525042990655</v>
       </c>
       <c r="F7">
         <v>3.940503172572278</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2895260949591538</v>
+        <v>0.2895260949591716</v>
       </c>
       <c r="I7">
-        <v>0.01202801180322854</v>
+        <v>0.01202801180324364</v>
       </c>
       <c r="J7">
-        <v>3.652760909896756</v>
+        <v>3.652760909896784</v>
       </c>
       <c r="K7">
-        <v>2.005095614518225</v>
+        <v>2.005095614518169</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036670881271391</v>
+        <v>1.036670881271476</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.18619145828049</v>
+        <v>0.1861914582803053</v>
       </c>
       <c r="E8">
-        <v>0.06341288922794419</v>
+        <v>0.06341288922800814</v>
       </c>
       <c r="F8">
         <v>4.862288514203897</v>
@@ -661,13 +661,13 @@
         <v>0.2753527683521924</v>
       </c>
       <c r="I8">
-        <v>0.01222058832792783</v>
+        <v>0.01222058832791628</v>
       </c>
       <c r="J8">
-        <v>4.537168899788014</v>
+        <v>4.537168899787986</v>
       </c>
       <c r="K8">
-        <v>2.498738135564295</v>
+        <v>2.498738135564253</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.422579281778297</v>
+        <v>1.422579281778269</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.278401552570827</v>
+        <v>0.2784015525708412</v>
       </c>
       <c r="E9">
-        <v>0.08921125075225689</v>
+        <v>0.08921125075224978</v>
       </c>
       <c r="F9">
-        <v>6.963604701676473</v>
+        <v>6.963604701676502</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.2697661847374846</v>
+        <v>0.2697661847374917</v>
       </c>
       <c r="I9">
-        <v>0.01283942343263345</v>
+        <v>0.01283942343260547</v>
       </c>
       <c r="J9">
-        <v>6.437207557414183</v>
+        <v>6.437207557414212</v>
       </c>
       <c r="K9">
-        <v>3.570532488846652</v>
+        <v>3.570532488846681</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723800841522063</v>
+        <v>1.723800841521978</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3632655868218535</v>
+        <v>0.3632655868222798</v>
       </c>
       <c r="E10">
-        <v>0.1121048862066338</v>
+        <v>0.1121048862066161</v>
       </c>
       <c r="F10">
-        <v>8.827561934489211</v>
+        <v>8.827561934489125</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2867665736266432</v>
+        <v>0.2867665736266147</v>
       </c>
       <c r="I10">
-        <v>0.01357311526349658</v>
+        <v>0.01357311526352856</v>
       </c>
       <c r="J10">
         <v>8.021913871374892</v>
@@ -760,28 +760,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4085161981108882</v>
+        <v>0.4085161981109025</v>
       </c>
       <c r="E11">
-        <v>0.1241566237604026</v>
+        <v>0.1241566237604346</v>
       </c>
       <c r="F11">
-        <v>9.796696076426684</v>
+        <v>9.796696076426628</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3017945183738675</v>
+        <v>0.3017945183738888</v>
       </c>
       <c r="I11">
-        <v>0.01402386192316341</v>
+        <v>0.01402386192317451</v>
       </c>
       <c r="J11">
-        <v>8.816012431911844</v>
+        <v>8.816012431911815</v>
       </c>
       <c r="K11">
-        <v>4.931892053202546</v>
+        <v>4.931892053202517</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.923186301432281</v>
+        <v>1.923186301432168</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0.4270162808339961</v>
       </c>
       <c r="E12">
-        <v>0.1290690363833953</v>
+        <v>0.1290690363833988</v>
       </c>
       <c r="F12">
         <v>10.18820441945471</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3089005047867985</v>
+        <v>0.3089005047868056</v>
       </c>
       <c r="I12">
-        <v>0.01422008789449869</v>
+        <v>0.01422008789449913</v>
       </c>
       <c r="J12">
-        <v>9.131669431012796</v>
+        <v>9.131669431012853</v>
       </c>
       <c r="K12">
-        <v>5.114049920421991</v>
+        <v>5.114049920422019</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.911119175445208</v>
+        <v>1.91111917544535</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4229623337176918</v>
+        <v>0.4229623337170807</v>
       </c>
       <c r="E13">
-        <v>0.127993032329659</v>
+        <v>0.1279930323295986</v>
       </c>
       <c r="F13">
-        <v>10.1026424183722</v>
+        <v>10.10264241837234</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3072993109901319</v>
+        <v>0.3072993109901461</v>
       </c>
       <c r="I13">
-        <v>0.01417649078256566</v>
+        <v>0.01417649078257499</v>
       </c>
       <c r="J13">
-        <v>9.062926503876071</v>
+        <v>9.062926503876156</v>
       </c>
       <c r="K13">
-        <v>5.074351118485907</v>
+        <v>5.074351118485936</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.872019500239247</v>
+        <v>1.872019500239162</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4100077356111029</v>
+        <v>0.4100077356113161</v>
       </c>
       <c r="E14">
-        <v>0.1245529021240053</v>
+        <v>0.1245529021239662</v>
       </c>
       <c r="F14">
-        <v>9.82836064227979</v>
+        <v>9.828360642279733</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.3023480166826502</v>
+        <v>0.302348016682636</v>
       </c>
       <c r="I14">
-        <v>0.01403942387096091</v>
+        <v>0.01403942387092272</v>
       </c>
       <c r="J14">
-        <v>8.841648603725361</v>
+        <v>8.841648603725247</v>
       </c>
       <c r="K14">
-        <v>4.946673327673324</v>
+        <v>4.946673327673352</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.848255400325826</v>
+        <v>1.848255400325797</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0.4022661693527283</v>
       </c>
       <c r="E15">
-        <v>0.1224955705499262</v>
+        <v>0.1224955705500079</v>
       </c>
       <c r="F15">
-        <v>9.663819373408103</v>
+        <v>9.663819373408131</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2995134271779918</v>
+        <v>0.2995134271779847</v>
       </c>
       <c r="I15">
-        <v>0.01395914335006099</v>
+        <v>0.01395914335006143</v>
       </c>
       <c r="J15">
-        <v>8.708225661779068</v>
+        <v>8.708225661779096</v>
       </c>
       <c r="K15">
         <v>4.869769265125001</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714573321010135</v>
+        <v>1.714573321010164</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,25 +953,25 @@
         <v>0.360472586526754</v>
       </c>
       <c r="E16">
-        <v>0.111358587578934</v>
+        <v>0.1113585875789447</v>
       </c>
       <c r="F16">
-        <v>8.767197095722196</v>
+        <v>8.767197095722111</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2859588180071952</v>
+        <v>0.2859588180072095</v>
       </c>
       <c r="I16">
-        <v>0.01354664474029788</v>
+        <v>0.01354664474033473</v>
       </c>
       <c r="J16">
         <v>7.971822060254055</v>
       </c>
       <c r="K16">
-        <v>4.446429715197837</v>
+        <v>4.44642971519778</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.634477376459188</v>
+        <v>1.634477376459131</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3367690336789195</v>
+        <v>0.336769033678749</v>
       </c>
       <c r="E17">
         <v>0.1050093520836839</v>
@@ -1003,13 +1003,13 @@
         <v>0.2797239289305722</v>
       </c>
       <c r="I17">
-        <v>0.01332831194909767</v>
+        <v>0.01332831194906836</v>
       </c>
       <c r="J17">
         <v>7.541353606694514</v>
       </c>
       <c r="K17">
-        <v>4.199859001440842</v>
+        <v>4.199859001440899</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.589004477233772</v>
+        <v>1.589004477233999</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3237283005906875</v>
+        <v>0.3237283005902611</v>
       </c>
       <c r="E18">
-        <v>0.1015024195049499</v>
+        <v>0.1015024195049534</v>
       </c>
       <c r="F18">
-        <v>7.966945113201575</v>
+        <v>7.966945113201547</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2767955447367001</v>
+        <v>0.2767955447366717</v>
       </c>
       <c r="I18">
-        <v>0.01321302719990625</v>
+        <v>0.01321302719988005</v>
       </c>
       <c r="J18">
-        <v>7.300299903220207</v>
+        <v>7.300299903220235</v>
       </c>
       <c r="K18">
-        <v>4.06207882183125</v>
+        <v>4.062078821831278</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.573701794524567</v>
+        <v>1.573701794524396</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3194053118034503</v>
+        <v>0.319405311803834</v>
       </c>
       <c r="E19">
-        <v>0.1003373681358433</v>
+        <v>0.1003373681358219</v>
       </c>
       <c r="F19">
-        <v>7.872036616316649</v>
+        <v>7.872036616316592</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2759083819870796</v>
+        <v>0.2759083819870867</v>
       </c>
       <c r="I19">
-        <v>0.0131755715200601</v>
+        <v>0.01317557152004012</v>
       </c>
       <c r="J19">
         <v>7.219703406814375</v>
       </c>
       <c r="K19">
-        <v>4.016059613132654</v>
+        <v>4.016059613132626</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.642939871010526</v>
+        <v>1.642939871010554</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3392286080402158</v>
+        <v>0.3392286080398179</v>
       </c>
       <c r="E20">
-        <v>0.1056695965445797</v>
+        <v>0.1056695965445833</v>
       </c>
       <c r="F20">
         <v>8.305921078660049</v>
@@ -1117,13 +1117,13 @@
         <v>0.2803174340288805</v>
       </c>
       <c r="I20">
-        <v>0.01335044083293191</v>
+        <v>0.01335044083293679</v>
       </c>
       <c r="J20">
         <v>7.586475265412616</v>
       </c>
       <c r="K20">
-        <v>4.225673024501731</v>
+        <v>4.225673024501702</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.883464434578428</v>
+        <v>1.883464434578514</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4137714277152469</v>
+        <v>0.41377142771546</v>
       </c>
       <c r="E21">
-        <v>0.1255526626958705</v>
+        <v>0.1255526626958243</v>
       </c>
       <c r="F21">
-        <v>9.908183709501913</v>
+        <v>9.908183709501799</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0.3037600919658701</v>
       </c>
       <c r="I21">
-        <v>0.01407889339870794</v>
+        <v>0.01407889339874124</v>
       </c>
       <c r="J21">
-        <v>8.906190916579732</v>
+        <v>8.906190916579703</v>
       </c>
       <c r="K21">
-        <v>4.983897059562025</v>
+        <v>4.983897059561997</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.048673575815684</v>
+        <v>2.048673575815627</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4708270106685575</v>
+        <v>0.4708270106681454</v>
       </c>
       <c r="E22">
-        <v>0.1406901144461159</v>
+        <v>0.1406901144461763</v>
       </c>
       <c r="F22">
-        <v>11.10477429486582</v>
+        <v>11.10477429486576</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3276607753788596</v>
+        <v>0.3276607753788738</v>
       </c>
       <c r="I22">
-        <v>0.0147129076346979</v>
+        <v>0.01471290763470057</v>
       </c>
       <c r="J22">
         <v>9.859904735750348</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.959592630284703</v>
+        <v>1.959592630284618</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,25 +1219,25 @@
         <v>0.4394110544460545</v>
       </c>
       <c r="E23">
-        <v>0.1323577321081366</v>
+        <v>0.1323577321081295</v>
       </c>
       <c r="F23">
-        <v>10.44901356510036</v>
+        <v>10.44901356510033</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3139433808527556</v>
+        <v>0.3139433808527414</v>
       </c>
       <c r="I23">
-        <v>0.01435547712478824</v>
+        <v>0.01435547712476248</v>
       </c>
       <c r="J23">
-        <v>9.340392059495599</v>
+        <v>9.340392059495628</v>
       </c>
       <c r="K23">
-        <v>5.234684473014511</v>
+        <v>5.234684473014482</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.639112210116252</v>
+        <v>1.639112210116224</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3381148343060545</v>
+        <v>0.3381148343060261</v>
       </c>
       <c r="E24">
-        <v>0.1053706611141827</v>
+        <v>0.1053706611141223</v>
       </c>
       <c r="F24">
-        <v>8.281632476507269</v>
+        <v>8.281632476507355</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0.2800470914598847</v>
       </c>
       <c r="I24">
-        <v>0.01334040504534917</v>
+        <v>0.01334040504533718</v>
       </c>
       <c r="J24">
         <v>7.566056038677942</v>
       </c>
       <c r="K24">
-        <v>4.213990300896654</v>
+        <v>4.213990300896683</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.315791283261376</v>
+        <v>1.31579128326149</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2511719283743332</v>
+        <v>0.2511719283742053</v>
       </c>
       <c r="E25">
-        <v>0.08172782566196446</v>
+        <v>0.08172782566192538</v>
       </c>
       <c r="F25">
-        <v>6.351827384570413</v>
+        <v>6.351827384570385</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2682566811314331</v>
+        <v>0.2682566811314295</v>
       </c>
       <c r="I25">
-        <v>0.01263588668621463</v>
+        <v>0.01263588668616888</v>
       </c>
       <c r="J25">
-        <v>5.898079727717203</v>
+        <v>5.898079727717118</v>
       </c>
       <c r="K25">
-        <v>3.264936339774394</v>
+        <v>3.264936339774408</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.088647601202894</v>
+        <v>1.084035929626168</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1976474475754628</v>
+        <v>0.1942619875130731</v>
       </c>
       <c r="E2">
-        <v>0.06670069887714902</v>
+        <v>0.06274634769690479</v>
       </c>
       <c r="F2">
-        <v>5.128085478229536</v>
+        <v>5.096327357445404</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007077488465874733</v>
       </c>
       <c r="H2">
-        <v>0.2728063389196613</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01228588432469158</v>
+        <v>0.2798872149814962</v>
       </c>
       <c r="J2">
-        <v>4.78563200736906</v>
+        <v>0.01120420052702142</v>
       </c>
       <c r="K2">
-        <v>2.638046241169491</v>
+        <v>4.730275703887145</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.609952836571949</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.938925873235803</v>
+        <v>0.9350324162477932</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1654102125252592</v>
+        <v>0.1632172130349545</v>
       </c>
       <c r="E3">
-        <v>0.05736538818049652</v>
+        <v>0.05372351950261844</v>
       </c>
       <c r="F3">
-        <v>4.37640944796857</v>
+        <v>4.360232830217171</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007261833208336228</v>
       </c>
       <c r="H3">
-        <v>0.2817090523756676</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01211214765062207</v>
+        <v>0.2897748778704639</v>
       </c>
       <c r="J3">
-        <v>4.075687546093747</v>
+        <v>0.01102801505101336</v>
       </c>
       <c r="K3">
-        <v>2.240713235826945</v>
+        <v>4.029510442021262</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.217812426190861</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8484585075875373</v>
+        <v>0.8449889390923033</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.147044401817098</v>
+        <v>0.1455552695560556</v>
       </c>
       <c r="E4">
-        <v>0.05191466921331056</v>
+        <v>0.04845344610928848</v>
       </c>
       <c r="F4">
-        <v>3.942829839400758</v>
+        <v>3.935754940326547</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007375417813968462</v>
       </c>
       <c r="H4">
-        <v>0.2894784936755599</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01202842499145929</v>
+        <v>0.2981272245175361</v>
       </c>
       <c r="J4">
-        <v>3.655042735797451</v>
+        <v>0.01094092422657544</v>
       </c>
       <c r="K4">
-        <v>2.006364594593023</v>
+        <v>3.614214374869789</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.986474792108396</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8118854657185466</v>
+        <v>0.8085856800219631</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1398531102393008</v>
+        <v>0.1386459766759032</v>
       </c>
       <c r="E5">
-        <v>0.04974844045348448</v>
+        <v>0.0463587529592111</v>
       </c>
       <c r="F5">
-        <v>3.77194278309571</v>
+        <v>3.768494125618645</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007421938463032219</v>
       </c>
       <c r="H5">
-        <v>0.29315535558516</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0119991712273535</v>
+        <v>0.3020379848532073</v>
       </c>
       <c r="J5">
-        <v>3.486704770737958</v>
+        <v>0.01090990061732144</v>
       </c>
       <c r="K5">
-        <v>1.912814881629842</v>
+        <v>3.448004622090508</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.894119855388908</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8058282959128462</v>
+        <v>0.8025565569580522</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1386749964153466</v>
+        <v>0.1375144530292971</v>
       </c>
       <c r="E6">
-        <v>0.04939166321027066</v>
+        <v>0.04601374687004345</v>
       </c>
       <c r="F6">
-        <v>3.743885720512509</v>
+        <v>3.741035041353285</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000742968078981824</v>
       </c>
       <c r="H6">
-        <v>0.2937949639898569</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01199458519035579</v>
+        <v>0.3027162581000411</v>
       </c>
       <c r="J6">
-        <v>3.458918707318304</v>
+        <v>0.01090499845602455</v>
       </c>
       <c r="K6">
-        <v>1.897386670325673</v>
+        <v>3.420569350812713</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.878888392046406</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8479641734405448</v>
+        <v>0.8444969051332407</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1469463097299837</v>
+        <v>0.1454609975561425</v>
       </c>
       <c r="E7">
-        <v>0.05188525042990655</v>
+        <v>0.04842499965010028</v>
       </c>
       <c r="F7">
-        <v>3.940503172572278</v>
+        <v>3.933477474338389</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007376044101073414</v>
       </c>
       <c r="H7">
-        <v>0.2895260949591716</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01202801180324364</v>
+        <v>0.2981779928437547</v>
       </c>
       <c r="J7">
-        <v>3.652760909896784</v>
+        <v>0.01094048869688846</v>
       </c>
       <c r="K7">
-        <v>2.005095614518169</v>
+        <v>3.611961435370603</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.985222041658304</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036670881271476</v>
+        <v>1.032311329908623</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1861914582803053</v>
+        <v>0.1832246085503613</v>
       </c>
       <c r="E8">
-        <v>0.06341288922800814</v>
+        <v>0.0595691230063764</v>
       </c>
       <c r="F8">
-        <v>4.862288514203897</v>
+        <v>4.83602310951099</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007141057569001945</v>
       </c>
       <c r="H8">
-        <v>0.2753527683521924</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01222058832791628</v>
+        <v>0.2827790652614652</v>
       </c>
       <c r="J8">
-        <v>4.537168899787986</v>
+        <v>0.01113849677451606</v>
       </c>
       <c r="K8">
-        <v>2.498738135564253</v>
+        <v>4.48505159778901</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.472480462059281</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.422579281778269</v>
+        <v>1.416245983335614</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2784015525708412</v>
+        <v>0.2721567300073815</v>
       </c>
       <c r="E9">
-        <v>0.08921125075224978</v>
+        <v>0.08447807345324065</v>
       </c>
       <c r="F9">
-        <v>6.963604701676502</v>
+        <v>6.89369101324732</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006675560930083847</v>
       </c>
       <c r="H9">
-        <v>0.2697661847374917</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01283942343260547</v>
+        <v>0.2744966749318749</v>
       </c>
       <c r="J9">
-        <v>6.437207557414212</v>
+        <v>0.01174847687418312</v>
       </c>
       <c r="K9">
-        <v>3.570532488846681</v>
+        <v>6.359256524600198</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.52954185829995</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723800841521978</v>
+        <v>1.715677749091952</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3632655868222798</v>
+        <v>0.3540496015372554</v>
       </c>
       <c r="E10">
-        <v>0.1121048862066161</v>
+        <v>0.1065244052857253</v>
       </c>
       <c r="F10">
-        <v>8.827561934489125</v>
+        <v>8.716902311525075</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006315419496098727</v>
       </c>
       <c r="H10">
-        <v>0.2867665736266147</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01357311526352856</v>
+        <v>0.289071888323349</v>
       </c>
       <c r="J10">
-        <v>8.021913871374892</v>
+        <v>0.01245287773568116</v>
       </c>
       <c r="K10">
-        <v>4.475165432229119</v>
+        <v>7.919650595883212</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>4.420151126051707</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.867464382873948</v>
+        <v>1.858361487994046</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4085161981109025</v>
+        <v>0.3976768073341646</v>
       </c>
       <c r="E11">
-        <v>0.1241566237604346</v>
+        <v>0.1180992060226806</v>
       </c>
       <c r="F11">
-        <v>9.796696076426628</v>
+        <v>9.663347332173458</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006142090624194712</v>
       </c>
       <c r="H11">
-        <v>0.3017945183738888</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01402386192317451</v>
+        <v>0.3027830495847752</v>
       </c>
       <c r="J11">
-        <v>8.816012431911815</v>
+        <v>0.01288038808004943</v>
       </c>
       <c r="K11">
-        <v>4.931892053202517</v>
+        <v>8.700128987092683</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>4.868969728530573</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.923186301432168</v>
+        <v>1.913673401558782</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4270162808339961</v>
+        <v>0.4154986021020051</v>
       </c>
       <c r="E12">
-        <v>0.1290690363833988</v>
+        <v>0.1228097399872929</v>
       </c>
       <c r="F12">
-        <v>10.18820441945471</v>
+        <v>10.0452944265972</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006074333317468587</v>
       </c>
       <c r="H12">
-        <v>0.3089005047868056</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01422008789449913</v>
+        <v>0.3093407595226836</v>
       </c>
       <c r="J12">
-        <v>9.131669431012853</v>
+        <v>0.01306556432147454</v>
       </c>
       <c r="K12">
-        <v>5.114049920422019</v>
+        <v>9.010029146402729</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.047775817599643</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.91111917544535</v>
+        <v>1.90169667622169</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4229623337170807</v>
+        <v>0.4115941489409067</v>
       </c>
       <c r="E13">
-        <v>0.1279930323295986</v>
+        <v>0.1217783554346106</v>
       </c>
       <c r="F13">
-        <v>10.10264241837234</v>
+        <v>9.961843661841215</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006089036668943211</v>
       </c>
       <c r="H13">
-        <v>0.3072993109901461</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01417649078257499</v>
+        <v>0.3078603061655301</v>
       </c>
       <c r="J13">
-        <v>9.062926503876156</v>
+        <v>0.01302446702840365</v>
       </c>
       <c r="K13">
-        <v>5.074351118485936</v>
+        <v>8.942558267010241</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.008818074156153</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.872019500239162</v>
+        <v>1.862883781768687</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4100077356113161</v>
+        <v>0.3991140185422353</v>
       </c>
       <c r="E14">
-        <v>0.1245529021239662</v>
+        <v>0.1184793697334996</v>
       </c>
       <c r="F14">
-        <v>9.828360642279733</v>
+        <v>9.694247815356619</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006136564404335756</v>
       </c>
       <c r="H14">
-        <v>0.302348016682636</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01403942387092272</v>
+        <v>0.3032925924016041</v>
       </c>
       <c r="J14">
-        <v>8.841648603725247</v>
+        <v>0.01289509298474378</v>
       </c>
       <c r="K14">
-        <v>4.946673327673352</v>
+        <v>8.725305476634418</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>4.883483555366638</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.848255400325797</v>
+        <v>1.839289634066944</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4022661693527283</v>
+        <v>0.3916537845914121</v>
       </c>
       <c r="E15">
-        <v>0.1224955705500079</v>
+        <v>0.1165053842196251</v>
       </c>
       <c r="F15">
-        <v>9.663819373408131</v>
+        <v>9.533660121310987</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006165371443717878</v>
       </c>
       <c r="H15">
-        <v>0.2995134271779847</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01395914335006143</v>
+        <v>0.3006857079622094</v>
       </c>
       <c r="J15">
-        <v>8.708225661779096</v>
+        <v>0.01281919686813549</v>
       </c>
       <c r="K15">
-        <v>4.869769265125001</v>
+        <v>8.594260354164362</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>4.807962561855305</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714573321010164</v>
+        <v>1.706509852646718</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.360472586526754</v>
+        <v>0.3513554855111209</v>
       </c>
       <c r="E16">
-        <v>0.1113585875789447</v>
+        <v>0.10580685793364</v>
       </c>
       <c r="F16">
-        <v>8.767197095722111</v>
+        <v>8.657910229258846</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006326499052881976</v>
       </c>
       <c r="H16">
-        <v>0.2859588180072095</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01354664474033473</v>
+        <v>0.2883445396272108</v>
       </c>
       <c r="J16">
-        <v>7.971822060254055</v>
+        <v>0.0124276678629669</v>
       </c>
       <c r="K16">
-        <v>4.44642971519778</v>
+        <v>7.870380972658438</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>4.391891704727442</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.634477376459131</v>
+        <v>1.626917035666594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.336769033678749</v>
+        <v>0.3284866903428849</v>
       </c>
       <c r="E17">
-        <v>0.1050093520836839</v>
+        <v>0.09969888459935206</v>
       </c>
       <c r="F17">
-        <v>8.252269875001161</v>
+        <v>8.154527151371155</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006422476734979513</v>
       </c>
       <c r="H17">
-        <v>0.2797239289305722</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01332831194906836</v>
+        <v>0.28278929935788</v>
       </c>
       <c r="J17">
-        <v>7.541353606694514</v>
+        <v>0.01221922729984692</v>
       </c>
       <c r="K17">
-        <v>4.199859001440899</v>
+        <v>7.446818161047844</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.149316175354187</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.589004477233999</v>
+        <v>1.58171919938377</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3237283005902611</v>
+        <v>0.3159025406962996</v>
       </c>
       <c r="E18">
-        <v>0.1015024195049534</v>
+        <v>0.09632278463381994</v>
       </c>
       <c r="F18">
-        <v>7.966945113201547</v>
+        <v>7.875482336255345</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006476846168459104</v>
       </c>
       <c r="H18">
-        <v>0.2767955447366717</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01321302719988005</v>
+        <v>0.2802333024212231</v>
       </c>
       <c r="J18">
-        <v>7.300299903220235</v>
+        <v>0.01210876838866204</v>
       </c>
       <c r="K18">
-        <v>4.062078821831278</v>
+        <v>7.209514679554502</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.013701508570165</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.573701794524396</v>
+        <v>1.566507504315751</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.319405311803834</v>
+        <v>0.3117306115026963</v>
       </c>
       <c r="E19">
-        <v>0.1003373681358219</v>
+        <v>0.09520083769630361</v>
       </c>
       <c r="F19">
-        <v>7.872036616316592</v>
+        <v>7.782646087364981</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006495129140674254</v>
       </c>
       <c r="H19">
-        <v>0.2759083819870867</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01317557152004012</v>
+        <v>0.2794694405104039</v>
       </c>
       <c r="J19">
-        <v>7.219703406814375</v>
+        <v>0.01207281540913074</v>
       </c>
       <c r="K19">
-        <v>4.016059613132626</v>
+        <v>7.130154684014883</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>3.968395630200718</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.642939871010554</v>
+        <v>1.635327533203764</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3392286080398179</v>
+        <v>0.3308599690803078</v>
       </c>
       <c r="E20">
-        <v>0.1056695965445833</v>
+        <v>0.1003343101470158</v>
       </c>
       <c r="F20">
-        <v>8.305921078660049</v>
+        <v>8.206988669533928</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006412350488459664</v>
       </c>
       <c r="H20">
-        <v>0.2803174340288805</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01335044083293679</v>
+        <v>0.2833124725198317</v>
       </c>
       <c r="J20">
-        <v>7.586475265412616</v>
+        <v>0.01224039685900191</v>
       </c>
       <c r="K20">
-        <v>4.225673024501702</v>
+        <v>7.491228861150574</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.174719328750456</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.883464434578514</v>
+        <v>1.874245715726516</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.41377142771546</v>
+        <v>0.4027403556278273</v>
       </c>
       <c r="E21">
-        <v>0.1255526626958243</v>
+        <v>0.1194383443070457</v>
       </c>
       <c r="F21">
-        <v>9.908183709501799</v>
+        <v>9.772137685990657</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000612266986085741</v>
       </c>
       <c r="H21">
-        <v>0.3037600919658701</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01407889339874124</v>
+        <v>0.3045935661109951</v>
       </c>
       <c r="J21">
-        <v>8.906190916579703</v>
+        <v>0.01293237364386535</v>
       </c>
       <c r="K21">
-        <v>4.983897059561997</v>
+        <v>8.78868446260654</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>4.920030301591396</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.048673575815627</v>
+        <v>2.038160394808273</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4708270106681454</v>
+        <v>0.4576576722795807</v>
       </c>
       <c r="E22">
-        <v>0.1406901144461763</v>
+        <v>0.1339333645410221</v>
       </c>
       <c r="F22">
-        <v>11.10477429486576</v>
+        <v>10.93839720711202</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005920295193843879</v>
       </c>
       <c r="H22">
-        <v>0.3276607753788738</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01471290763470057</v>
+        <v>0.3267708771987259</v>
       </c>
       <c r="J22">
-        <v>9.859904735750348</v>
+        <v>0.01352847462404272</v>
       </c>
       <c r="K22">
-        <v>5.53557654899015</v>
+        <v>9.724092632548519</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.461030832697958</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.959592630284618</v>
+        <v>1.949801237035445</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4394110544460545</v>
+        <v>0.4274330594717526</v>
       </c>
       <c r="E23">
-        <v>0.1323577321081295</v>
+        <v>0.1259606103107167</v>
       </c>
       <c r="F23">
-        <v>10.44901356510033</v>
+        <v>10.29958904178446</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006029865452808308</v>
       </c>
       <c r="H23">
-        <v>0.3139433808527414</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01435547712476248</v>
+        <v>0.3140122129428917</v>
       </c>
       <c r="J23">
-        <v>9.340392059495628</v>
+        <v>0.01319303359393809</v>
       </c>
       <c r="K23">
-        <v>5.234684473014482</v>
+        <v>9.21482360301269</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.16612041795949</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.639112210116224</v>
+        <v>1.631523423400381</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3381148343060261</v>
+        <v>0.3297852807066022</v>
       </c>
       <c r="E24">
-        <v>0.1053706611141223</v>
+        <v>0.1000466193509517</v>
       </c>
       <c r="F24">
-        <v>8.281632476507355</v>
+        <v>8.183239012270604</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00064169310341744</v>
       </c>
       <c r="H24">
-        <v>0.2800470914598847</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01334040504533718</v>
+        <v>0.2830739829710112</v>
       </c>
       <c r="J24">
-        <v>7.566056038677942</v>
+        <v>0.01223079741264455</v>
       </c>
       <c r="K24">
-        <v>4.213990300896683</v>
+        <v>7.471131729127734</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.163222759778307</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.31579128326149</v>
+        <v>1.310031446524192</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2511719283742053</v>
+        <v>0.2458796545322315</v>
       </c>
       <c r="E25">
-        <v>0.08172782566192538</v>
+        <v>0.07725842143234019</v>
       </c>
       <c r="F25">
-        <v>6.351827384570385</v>
+        <v>6.294745174570835</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006803282775994226</v>
       </c>
       <c r="H25">
-        <v>0.2682566811314295</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01263588668616888</v>
+        <v>0.2737684415054176</v>
       </c>
       <c r="J25">
-        <v>5.898079727717118</v>
+        <v>0.01155025373622331</v>
       </c>
       <c r="K25">
-        <v>3.264936339774408</v>
+        <v>5.827745637744158</v>
       </c>
       <c r="L25">
+        <v>3.228310060745585</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.084035929626168</v>
+        <v>1.527833166337473</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1942619875130731</v>
+        <v>0.1098385997668885</v>
       </c>
       <c r="E2">
-        <v>0.06274634769690479</v>
+        <v>1.035434535107655</v>
       </c>
       <c r="F2">
-        <v>5.096327357445404</v>
+        <v>3.869179212991639</v>
       </c>
       <c r="G2">
-        <v>0.0007077488465874733</v>
+        <v>0.0007477966643001377</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2798872149814962</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01120420052702142</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.730275703887145</v>
+        <v>2.744818039254142</v>
       </c>
       <c r="L2">
-        <v>2.609952836571949</v>
+        <v>0.6903036576241846</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5033709636738024</v>
+      </c>
+      <c r="N2">
+        <v>1.138107454212765</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9350324162477932</v>
+        <v>1.34811715929834</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1632172130349545</v>
+        <v>0.09950308934884333</v>
       </c>
       <c r="E3">
-        <v>0.05372351950261844</v>
+        <v>0.8949965870123009</v>
       </c>
       <c r="F3">
-        <v>4.360232830217171</v>
+        <v>3.379103786451111</v>
       </c>
       <c r="G3">
-        <v>0.0007261833208336228</v>
+        <v>0.0007614813357203851</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2897748778704639</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01102801505101336</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.029510442021262</v>
+        <v>2.348554310962456</v>
       </c>
       <c r="L3">
-        <v>2.217812426190861</v>
+        <v>0.5944992941066971</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4387422541672024</v>
+      </c>
+      <c r="N3">
+        <v>1.202568520109047</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8449889390923033</v>
+        <v>1.240519411948981</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1455552695560556</v>
+        <v>0.09361528276414788</v>
       </c>
       <c r="E4">
-        <v>0.04845344610928848</v>
+        <v>0.8111857858969955</v>
       </c>
       <c r="F4">
-        <v>3.935754940326547</v>
+        <v>3.090795586917039</v>
       </c>
       <c r="G4">
-        <v>0.0007375417813968462</v>
+        <v>0.0007700214766712436</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2981272245175361</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01094092422657544</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.614214374869789</v>
+        <v>2.11145485035884</v>
       </c>
       <c r="L4">
-        <v>1.986474792108396</v>
+        <v>0.5372169906038238</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4000641740280884</v>
+      </c>
+      <c r="N4">
+        <v>1.244128178869133</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8085856800219631</v>
+        <v>1.197277206151</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1386459766759032</v>
+        <v>0.09131608387440338</v>
       </c>
       <c r="E5">
-        <v>0.0463587529592111</v>
+        <v>0.7775228977487529</v>
       </c>
       <c r="F5">
-        <v>3.768494125618645</v>
+        <v>2.976027969885507</v>
       </c>
       <c r="G5">
-        <v>0.0007421938463032219</v>
+        <v>0.0007735417413586223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3020379848532073</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01090990061732144</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.448004622090508</v>
+        <v>2.016128335007906</v>
       </c>
       <c r="L5">
-        <v>1.894119855388908</v>
+        <v>0.5142019535415159</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3845199710785607</v>
+      </c>
+      <c r="N5">
+        <v>1.261537021978114</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8025565569580522</v>
+        <v>1.190131055412735</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1375144530292971</v>
+        <v>0.09093994783603421</v>
       </c>
       <c r="E6">
-        <v>0.04601374687004345</v>
+        <v>0.7719597134632181</v>
       </c>
       <c r="F6">
-        <v>3.741035041353285</v>
+        <v>2.957123178810889</v>
       </c>
       <c r="G6">
-        <v>0.000742968078981824</v>
+        <v>0.0007741288466218032</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3027162581000411</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01090499845602455</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.420569350812713</v>
+        <v>2.00037039658838</v>
       </c>
       <c r="L6">
-        <v>1.878888392046406</v>
+        <v>0.5103985257020867</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3819510531581898</v>
+      </c>
+      <c r="N6">
+        <v>1.264455634911627</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8444969051332407</v>
+        <v>1.239933890882753</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1454609975561425</v>
+        <v>0.09358388802733941</v>
       </c>
       <c r="E7">
-        <v>0.04842499965010028</v>
+        <v>0.8107299528908385</v>
       </c>
       <c r="F7">
-        <v>3.933477474338389</v>
+        <v>3.089237326588432</v>
       </c>
       <c r="G7">
-        <v>0.0007376044101073414</v>
+        <v>0.000770068782939737</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2981779928437547</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01094048869688846</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.611961435370603</v>
+        <v>2.110164334760569</v>
       </c>
       <c r="L7">
-        <v>1.985222041658304</v>
+        <v>0.5369053474120733</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.399853702444851</v>
+      </c>
+      <c r="N7">
+        <v>1.244361076626056</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.032311329908623</v>
+        <v>1.465241293279348</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1832246085503613</v>
+        <v>0.1061700424928347</v>
       </c>
       <c r="E8">
-        <v>0.0595691230063764</v>
+        <v>0.9864332293380755</v>
       </c>
       <c r="F8">
-        <v>4.83602310951099</v>
+        <v>3.697296997196986</v>
       </c>
       <c r="G8">
-        <v>0.0007141057569001945</v>
+        <v>0.0007524900807651669</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2827790652614652</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01113849677451606</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4.48505159778901</v>
+        <v>2.606724902760917</v>
       </c>
       <c r="L8">
-        <v>2.472480462059281</v>
+        <v>0.6569117878397321</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4808560345113193</v>
+      </c>
+      <c r="N8">
+        <v>1.159906610868539</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.416245983335614</v>
+        <v>1.933415488312193</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2721567300073815</v>
+        <v>0.135301156833961</v>
       </c>
       <c r="E9">
-        <v>0.08447807345324065</v>
+        <v>1.356578272268024</v>
       </c>
       <c r="F9">
-        <v>6.89369101324732</v>
+        <v>5.013662518148351</v>
       </c>
       <c r="G9">
-        <v>0.0006675560930083847</v>
+        <v>0.0007188189338179331</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2744966749318749</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01174847687418312</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.359256524600198</v>
+        <v>3.644125774697784</v>
       </c>
       <c r="L9">
-        <v>3.52954185829995</v>
+        <v>0.9076646214859636</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6495251708069318</v>
+      </c>
+      <c r="N9">
+        <v>1.011310789424911</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.715677749091952</v>
+        <v>2.301033518630163</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3540496015372554</v>
+        <v>0.160825505703059</v>
       </c>
       <c r="E10">
-        <v>0.1065244052857253</v>
+        <v>1.655335995665254</v>
       </c>
       <c r="F10">
-        <v>8.716902311525075</v>
+        <v>6.09750951161999</v>
       </c>
       <c r="G10">
-        <v>0.0006315419496098727</v>
+        <v>0.0006940686740195189</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.289071888323349</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01245287773568116</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>7.919650595883212</v>
+        <v>4.469904160495958</v>
       </c>
       <c r="L10">
-        <v>4.420151126051707</v>
+        <v>1.106723461809594</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7825675535506278</v>
+      </c>
+      <c r="N10">
+        <v>0.9146916516387407</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.858361487994046</v>
+        <v>2.475578296702338</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3976768073341646</v>
+        <v>0.1737563150444288</v>
       </c>
       <c r="E11">
-        <v>0.1180992060226806</v>
+        <v>1.800489598600151</v>
       </c>
       <c r="F11">
-        <v>9.663347332173458</v>
+        <v>6.628135682912045</v>
       </c>
       <c r="G11">
-        <v>0.0006142090624194712</v>
+        <v>0.0006826581926144826</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3027830495847752</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01288038808004943</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>8.700128987092683</v>
+        <v>4.866783734465713</v>
       </c>
       <c r="L11">
-        <v>4.868969728530573</v>
+        <v>1.202096747384985</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8459805328040346</v>
+      </c>
+      <c r="N11">
+        <v>0.8740904592797776</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.913673401558782</v>
+        <v>2.542957483480109</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4154986021020051</v>
+        <v>0.1788901328769441</v>
       </c>
       <c r="E12">
-        <v>0.1228097399872929</v>
+        <v>1.857171658087523</v>
       </c>
       <c r="F12">
-        <v>10.0452944265972</v>
+        <v>6.835823910909539</v>
       </c>
       <c r="G12">
-        <v>0.0006074333317468587</v>
+        <v>0.0006782991672105139</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3093407595226836</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01306556432147454</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>9.010029146402729</v>
+        <v>5.020945899604612</v>
       </c>
       <c r="L12">
-        <v>5.047775817599643</v>
+        <v>1.23908007198375</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8705073772048308</v>
+      </c>
+      <c r="N12">
+        <v>0.8592656322738463</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.90169667622169</v>
+        <v>2.528384840449064</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4115941489409067</v>
+        <v>0.1777730261604376</v>
       </c>
       <c r="E13">
-        <v>0.1217783554346106</v>
+        <v>1.844880526714093</v>
       </c>
       <c r="F13">
-        <v>9.961843661841215</v>
+        <v>6.79076891915409</v>
       </c>
       <c r="G13">
-        <v>0.0006089036668943211</v>
+        <v>0.0006792399645257509</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3078603061655301</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01302446702840365</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.942558267010241</v>
+        <v>4.987556640181396</v>
       </c>
       <c r="L13">
-        <v>5.008818074156153</v>
+        <v>1.231073204787151</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8652004124264749</v>
+      </c>
+      <c r="N13">
+        <v>0.8624327052143244</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.862883781768687</v>
+        <v>2.48109439318506</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3991140185422353</v>
+        <v>0.1741736049982734</v>
       </c>
       <c r="E14">
-        <v>0.1184793697334996</v>
+        <v>1.805115881795743</v>
       </c>
       <c r="F14">
-        <v>9.694247815356619</v>
+        <v>6.645078012008753</v>
       </c>
       <c r="G14">
-        <v>0.0006136564404335756</v>
+        <v>0.000682300446100808</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3032925924016041</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01289509298474378</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>8.725305476634418</v>
+        <v>4.87938365508677</v>
       </c>
       <c r="L14">
-        <v>4.883483555366638</v>
+        <v>1.205120842437793</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8479874279122726</v>
+      </c>
+      <c r="N14">
+        <v>0.8728593422262421</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.839289634066944</v>
+        <v>2.452302479007017</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3916537845914121</v>
+        <v>0.1720013747557658</v>
       </c>
       <c r="E15">
-        <v>0.1165053842196251</v>
+        <v>1.78099560360728</v>
       </c>
       <c r="F15">
-        <v>9.533660121310987</v>
+        <v>6.55676340185255</v>
       </c>
       <c r="G15">
-        <v>0.0006165371443717878</v>
+        <v>0.0006841695562136747</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3006857079622094</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01281919686813549</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>8.594260354164362</v>
+        <v>4.813656938945087</v>
       </c>
       <c r="L15">
-        <v>4.807962561855305</v>
+        <v>1.189343179889988</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8375141948273708</v>
+      </c>
+      <c r="N15">
+        <v>0.8793198725340545</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.706509852646718</v>
+        <v>2.289792358864077</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3513554855111209</v>
+        <v>0.1600107757383427</v>
       </c>
       <c r="E16">
-        <v>0.10580685793364</v>
+        <v>1.64606656842534</v>
       </c>
       <c r="F16">
-        <v>8.657910229258846</v>
+        <v>6.063695573315812</v>
       </c>
       <c r="G16">
-        <v>0.0006326499052881976</v>
+        <v>0.0006948100247180798</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2883445396272108</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0124276678629669</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.870380972658438</v>
+        <v>4.444459667484551</v>
       </c>
       <c r="L16">
-        <v>4.391891704727442</v>
+        <v>1.100601533348396</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7784894004326617</v>
+      </c>
+      <c r="N16">
+        <v>0.9174179401541025</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.626917035666594</v>
+        <v>2.19211956666652</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3284866903428849</v>
+        <v>0.1530229305289765</v>
       </c>
       <c r="E17">
-        <v>0.09969888459935206</v>
+        <v>1.565903511977211</v>
       </c>
       <c r="F17">
-        <v>8.154527151371155</v>
+        <v>5.771695873117437</v>
       </c>
       <c r="G17">
-        <v>0.0006422476734979513</v>
+        <v>0.0007012884342159193</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.28278929935788</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01221922729984692</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>7.446818161047844</v>
+        <v>4.223926384320151</v>
       </c>
       <c r="L17">
-        <v>4.149316175354187</v>
+        <v>1.0475072130738</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7430828801240494</v>
+      </c>
+      <c r="N17">
+        <v>0.941691971942177</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.58171919938377</v>
+        <v>2.136612674307685</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3159025406962996</v>
+        <v>0.1491244641939886</v>
       </c>
       <c r="E18">
-        <v>0.09632278463381994</v>
+        <v>1.520637994217964</v>
       </c>
       <c r="F18">
-        <v>7.875482336255345</v>
+        <v>5.607184885794112</v>
       </c>
       <c r="G18">
-        <v>0.0006476846168459104</v>
+        <v>0.000705001571491127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2802333024212231</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01210876838866204</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>7.209514679554502</v>
+        <v>4.099020143059278</v>
       </c>
       <c r="L18">
-        <v>4.013701508570165</v>
+        <v>1.017409916626946</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7229831130466451</v>
+      </c>
+      <c r="N18">
+        <v>0.9559643444502228</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.566507504315751</v>
+        <v>2.117928173111409</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3117306115026963</v>
+        <v>0.147824000778499</v>
       </c>
       <c r="E19">
-        <v>0.09520083769630361</v>
+        <v>1.505446390644209</v>
       </c>
       <c r="F19">
-        <v>7.782646087364981</v>
+        <v>5.552039302966818</v>
       </c>
       <c r="G19">
-        <v>0.0006495129140674254</v>
+        <v>0.0007062569635221036</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2794694405104039</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01207281540913074</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7.130154684014883</v>
+        <v>4.057040322790698</v>
       </c>
       <c r="L19">
-        <v>3.968395630200718</v>
+        <v>1.007290616363406</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7162205910947321</v>
+      </c>
+      <c r="N19">
+        <v>0.9608482391249993</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.635327533203764</v>
+        <v>2.202445951622337</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3308599690803078</v>
+        <v>0.1537539963530605</v>
       </c>
       <c r="E20">
-        <v>0.1003343101470158</v>
+        <v>1.57434738156276</v>
       </c>
       <c r="F20">
-        <v>8.206988669533928</v>
+        <v>5.802415072390488</v>
       </c>
       <c r="G20">
-        <v>0.0006412350488459664</v>
+        <v>0.0007006002546621519</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2833124725198317</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01224039685900191</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.491228861150574</v>
+        <v>4.247196608293365</v>
       </c>
       <c r="L20">
-        <v>4.174719328750456</v>
+        <v>1.05311240840814</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.74682388827609</v>
+      </c>
+      <c r="N20">
+        <v>0.9390753707428914</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.874245715726516</v>
+        <v>2.494947812887972</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4027403556278273</v>
+        <v>0.1752239614290403</v>
       </c>
       <c r="E21">
-        <v>0.1194383443070457</v>
+        <v>1.816745541131283</v>
       </c>
       <c r="F21">
-        <v>9.772137685990657</v>
+        <v>6.687675208319916</v>
       </c>
       <c r="G21">
-        <v>0.000612266986085741</v>
+        <v>0.0006814026950628864</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3045935661109951</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01293237364386535</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>8.78868446260654</v>
+        <v>4.911043953367482</v>
       </c>
       <c r="L21">
-        <v>4.920030301591396</v>
+        <v>1.212718523136601</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.853028455431442</v>
+      </c>
+      <c r="N21">
+        <v>0.8697812375152125</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.038160394808273</v>
+        <v>2.693742674158784</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4576576722795807</v>
+        <v>0.1906708771816454</v>
       </c>
       <c r="E22">
-        <v>0.1339333645410221</v>
+        <v>1.985432997064635</v>
       </c>
       <c r="F22">
-        <v>10.93839720711202</v>
+        <v>7.306506752443823</v>
       </c>
       <c r="G22">
-        <v>0.0005920295193843879</v>
+        <v>0.0006686227118777628</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3267708771987259</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01352847462404272</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>9.724092632548519</v>
+        <v>5.368034424044737</v>
       </c>
       <c r="L22">
-        <v>5.461030832697958</v>
+        <v>1.322203479532021</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9254982627569603</v>
+      </c>
+      <c r="N22">
+        <v>0.8277434877348782</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.949801237035445</v>
+        <v>2.586852553560789</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4274330594717526</v>
+        <v>0.1822777444830592</v>
       </c>
       <c r="E23">
-        <v>0.1259606103107167</v>
+        <v>1.894303674042661</v>
       </c>
       <c r="F23">
-        <v>10.29958904178446</v>
+        <v>6.97199548961936</v>
       </c>
       <c r="G23">
-        <v>0.0006029865452808308</v>
+        <v>0.0006754715936634348</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3140122129428917</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01319303359393809</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>9.21482360301269</v>
+        <v>5.121681187640803</v>
       </c>
       <c r="L23">
-        <v>5.16612041795949</v>
+        <v>1.263225822562532</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.886500759502411</v>
+      </c>
+      <c r="N23">
+        <v>0.849855463570151</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.631523423400381</v>
+        <v>2.197775395990732</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3297852807066022</v>
+        <v>0.1534231144223668</v>
       </c>
       <c r="E24">
-        <v>0.1000466193509517</v>
+        <v>1.570527377555905</v>
       </c>
       <c r="F24">
-        <v>8.183239012270604</v>
+        <v>5.78851654250775</v>
       </c>
       <c r="G24">
-        <v>0.00064169310341744</v>
+        <v>0.0007009114149263399</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2830739829710112</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01223079741264455</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7.471131729127734</v>
+        <v>4.236670339057156</v>
       </c>
       <c r="L24">
-        <v>4.163222759778307</v>
+        <v>1.050576981080468</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7451317884381581</v>
+      </c>
+      <c r="N24">
+        <v>0.9402573539605967</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.310031446524192</v>
+        <v>1.803237486226379</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2458796545322315</v>
+        <v>0.1268161189647259</v>
       </c>
       <c r="E25">
-        <v>0.07725842143234019</v>
+        <v>1.252692530472189</v>
       </c>
       <c r="F25">
-        <v>6.294745174570835</v>
+        <v>4.640522725007344</v>
       </c>
       <c r="G25">
-        <v>0.0006803282775994226</v>
+        <v>0.0007278878691606424</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2737684415054176</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01155025373622331</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5.827745637744158</v>
+        <v>3.354407979156164</v>
       </c>
       <c r="L25">
-        <v>3.228310060745585</v>
+        <v>0.8376805305815083</v>
       </c>
       <c r="M25">
+        <v>0.6025550838549947</v>
+      </c>
+      <c r="N25">
+        <v>1.049486533822517</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.527833166337473</v>
+        <v>1.494482284442995</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1098385997668885</v>
+        <v>0.02660496347823482</v>
       </c>
       <c r="E2">
-        <v>1.035434535107655</v>
+        <v>0.2940644329807292</v>
       </c>
       <c r="F2">
-        <v>3.869179212991639</v>
+        <v>0.5608209425609942</v>
       </c>
       <c r="G2">
-        <v>0.0007477966643001377</v>
+        <v>0.4769618151611752</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2691805331459705</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2180210813587315</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.744818039254142</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6903036576241846</v>
+        <v>0.6578958668974906</v>
       </c>
       <c r="M2">
-        <v>0.5033709636738024</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.138107454212765</v>
+        <v>1.487296188595437</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.528030895515229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.34811715929834</v>
+        <v>1.305728905574682</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09950308934884333</v>
+        <v>0.02313006962221209</v>
       </c>
       <c r="E3">
-        <v>0.8949965870123009</v>
+        <v>0.2854680509371903</v>
       </c>
       <c r="F3">
-        <v>3.379103786451111</v>
+        <v>0.4926005088193932</v>
       </c>
       <c r="G3">
-        <v>0.0007614813357203851</v>
+        <v>0.415430505832731</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2447427812896734</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2358031164467493</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.348554310962456</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5944992941066971</v>
+        <v>0.5720527977793211</v>
       </c>
       <c r="M3">
-        <v>0.4387422541672024</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.202568520109047</v>
+        <v>1.413042693055218</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.346094766746461</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.240519411948981</v>
+        <v>1.189948926310166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09361528276414788</v>
+        <v>0.02099775054561448</v>
       </c>
       <c r="E4">
-        <v>0.8111857858969955</v>
+        <v>0.2802989867257075</v>
       </c>
       <c r="F4">
-        <v>3.090795586917039</v>
+        <v>0.4513946981276362</v>
       </c>
       <c r="G4">
-        <v>0.0007700214766712436</v>
+        <v>0.3782407583810539</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2301341310951415</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2474268489638289</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.11145485035884</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5372169906038238</v>
+        <v>0.5194117530544275</v>
       </c>
       <c r="M4">
-        <v>0.4000641740280884</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.244128178869133</v>
+        <v>1.368378408695037</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.23645668734369</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197277206151</v>
+        <v>1.14278745379417</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09131608387440338</v>
+        <v>0.02012893479404454</v>
       </c>
       <c r="E5">
-        <v>0.7775228977487529</v>
+        <v>0.2782210664272</v>
       </c>
       <c r="F5">
-        <v>2.976027969885507</v>
+        <v>0.434759214218559</v>
       </c>
       <c r="G5">
-        <v>0.0007735417413586223</v>
+        <v>0.3632194775744608</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2242739704911685</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2523362326036334</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.016128335007906</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5142019535415159</v>
+        <v>0.4979708575257149</v>
       </c>
       <c r="M5">
-        <v>0.3845199710785607</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.261537021978114</v>
+        <v>1.350404305447967</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.1922540567422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.190131055412735</v>
+        <v>1.134957266021473</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09093994783603421</v>
+        <v>0.01998467027673811</v>
       </c>
       <c r="E6">
-        <v>0.7719597134632181</v>
+        <v>0.2778777827416796</v>
       </c>
       <c r="F6">
-        <v>2.957123178810889</v>
+        <v>0.4320059085813597</v>
       </c>
       <c r="G6">
-        <v>0.0007741288466218032</v>
+        <v>0.3607328728534185</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2233063229108154</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2531617208720824</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.00037039658838</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5103985257020867</v>
+        <v>0.4944110920829701</v>
       </c>
       <c r="M6">
-        <v>0.3819510531581898</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.264455634911627</v>
+        <v>1.347433249968631</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.18494170215709</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.239933890882753</v>
+        <v>1.189312821730596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09358388802733941</v>
+        <v>0.0209860331578966</v>
       </c>
       <c r="E7">
-        <v>0.8107299528908385</v>
+        <v>0.2802708462995547</v>
       </c>
       <c r="F7">
-        <v>3.089237326588432</v>
+        <v>0.4511697332504312</v>
       </c>
       <c r="G7">
-        <v>0.000770068782939737</v>
+        <v>0.3780376531218081</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2300547309904317</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2474923659053001</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.110164334760569</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5369053474120733</v>
+        <v>0.5191225578573864</v>
       </c>
       <c r="M7">
-        <v>0.399853702444851</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.244361076626056</v>
+        <v>1.368135092768625</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.235858686831449</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.465241293279348</v>
+        <v>1.429370404074916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1061700424928347</v>
+        <v>0.02540642996061138</v>
       </c>
       <c r="E8">
-        <v>0.9864332293380755</v>
+        <v>0.2910783879985992</v>
       </c>
       <c r="F8">
-        <v>3.697296997196986</v>
+        <v>0.5371476150905181</v>
       </c>
       <c r="G8">
-        <v>0.0007524900807651669</v>
+        <v>0.4556141286541191</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2606680467986706</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2240029780420487</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.606724902760917</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6569117878397321</v>
+        <v>0.628279488820624</v>
       </c>
       <c r="M8">
-        <v>0.4808560345113193</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.159906610868539</v>
+        <v>1.46149709945567</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.464841510474486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.933415488312193</v>
+        <v>1.901504979768504</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.135301156833961</v>
+        <v>0.03409488350197165</v>
       </c>
       <c r="E9">
-        <v>1.356578272268024</v>
+        <v>0.3130914352701666</v>
       </c>
       <c r="F9">
-        <v>5.013662518148351</v>
+        <v>0.7118911641096304</v>
       </c>
       <c r="G9">
-        <v>0.0007188189338179331</v>
+        <v>0.6131342393256602</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3241640062778828</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1837598593697587</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.644125774697784</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9076646214859636</v>
+        <v>0.8431694055089451</v>
       </c>
       <c r="M9">
-        <v>0.6495251708069318</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.011310789424911</v>
+        <v>1.652255332220562</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.932477696695543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.301033518630163</v>
+        <v>2.249951750241735</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.160825505703059</v>
+        <v>0.04050562275337199</v>
       </c>
       <c r="E10">
-        <v>1.655335995665254</v>
+        <v>0.3297020980565009</v>
       </c>
       <c r="F10">
-        <v>6.09750951161999</v>
+        <v>0.8451048652019892</v>
       </c>
       <c r="G10">
-        <v>0.0006940686740195189</v>
+        <v>0.7331997332344571</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3734002675105899</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1580582680570704</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.469904160495958</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.106723461809594</v>
+        <v>1.002020256477323</v>
       </c>
       <c r="M10">
-        <v>0.7825675535506278</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9146916516387407</v>
+        <v>1.797566488664017</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.290605645055791</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.475578296702338</v>
+        <v>2.408985280813567</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1737563150444288</v>
+        <v>0.04343154720762499</v>
       </c>
       <c r="E11">
-        <v>1.800489598600151</v>
+        <v>0.3373405097101951</v>
       </c>
       <c r="F11">
-        <v>6.628135682912045</v>
+        <v>0.9070138994361656</v>
       </c>
       <c r="G11">
-        <v>0.0006826581926144826</v>
+        <v>0.7890113044879286</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3964735434463904</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1472783210162909</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.866783734465713</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.202096747384985</v>
+        <v>1.074608048332607</v>
       </c>
       <c r="M11">
-        <v>0.8459805328040346</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8740904592797776</v>
+        <v>1.86490813646634</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.457453067046288</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.542957483480109</v>
+        <v>2.469297351933164</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1788901328769441</v>
+        <v>0.04454120953319318</v>
       </c>
       <c r="E12">
-        <v>1.857171658087523</v>
+        <v>0.3402436469648435</v>
       </c>
       <c r="F12">
-        <v>6.835823910909539</v>
+        <v>0.9306683948423995</v>
       </c>
       <c r="G12">
-        <v>0.0006782991672105139</v>
+        <v>0.8103394112864066</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4053179664858959</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1433338158440307</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.020945899604612</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.23908007198375</v>
+        <v>1.102151700036103</v>
       </c>
       <c r="M12">
-        <v>0.8705073772048308</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8592656322738463</v>
+        <v>1.890596722981087</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.521267420408918</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.528384840449064</v>
+        <v>2.456303848125856</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1777730261604376</v>
+        <v>0.04430214441764235</v>
       </c>
       <c r="E13">
-        <v>1.844880526714093</v>
+        <v>0.339617950065886</v>
       </c>
       <c r="F13">
-        <v>6.79076891915409</v>
+        <v>0.9255642199948539</v>
       </c>
       <c r="G13">
-        <v>0.0006792399645257509</v>
+        <v>0.8057370515269469</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4034082335877542</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.144177107535306</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.987556640181396</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.231073204787151</v>
+        <v>1.096217023779673</v>
       </c>
       <c r="M13">
-        <v>0.8652004124264749</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8624327052143244</v>
+        <v>1.885055715536964</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.507494588624752</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.48109439318506</v>
+        <v>2.413945311497969</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1741736049982734</v>
+        <v>0.0435228044253364</v>
       </c>
       <c r="E14">
-        <v>1.805115881795743</v>
+        <v>0.3375791461198787</v>
       </c>
       <c r="F14">
-        <v>6.645078012008753</v>
+        <v>0.9089556074503236</v>
       </c>
       <c r="G14">
-        <v>0.000682300446100808</v>
+        <v>0.7907619721205066</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3971989740233823</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1469510075285907</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.87938365508677</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.205120842437793</v>
+        <v>1.07687289786378</v>
       </c>
       <c r="M14">
-        <v>0.8479874279122726</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8728593422262421</v>
+        <v>1.867017731533991</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.462690026530197</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.452302479007017</v>
+        <v>2.38801158497057</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1720013747557658</v>
+        <v>0.04304566369599883</v>
       </c>
       <c r="E15">
-        <v>1.78099560360728</v>
+        <v>0.3363316701381081</v>
       </c>
       <c r="F15">
-        <v>6.55676340185255</v>
+        <v>0.8988105139867457</v>
       </c>
       <c r="G15">
-        <v>0.0006841695562136747</v>
+        <v>0.7816151763897068</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3934098747527628</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1486682230838667</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.813656938945087</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.189343179889988</v>
+        <v>1.065031675880192</v>
       </c>
       <c r="M15">
-        <v>0.8375141948273708</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8793198725340545</v>
+        <v>1.855993694173378</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.435330433091792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.289792358864077</v>
+        <v>2.239570261908398</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1600107757383427</v>
+        <v>0.04031462527731122</v>
       </c>
       <c r="E16">
-        <v>1.64606656842534</v>
+        <v>0.3292044623253503</v>
       </c>
       <c r="F16">
-        <v>6.063695573315812</v>
+        <v>0.8410872092273678</v>
       </c>
       <c r="G16">
-        <v>0.0006948100247180798</v>
+        <v>0.7295781625215483</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3719068006617476</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1587816602422363</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.444459667484551</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.100601533348396</v>
+        <v>0.9972838148463268</v>
       </c>
       <c r="M16">
-        <v>0.7784894004326617</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9174179401541025</v>
+        <v>1.793191291041438</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.279786562334607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.19211956666652</v>
+        <v>2.148650183912423</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1530229305289765</v>
+        <v>0.03864189363893189</v>
       </c>
       <c r="E17">
-        <v>1.565903511977211</v>
+        <v>0.3248523533687546</v>
       </c>
       <c r="F17">
-        <v>5.771695873117437</v>
+        <v>0.8060267988009855</v>
       </c>
       <c r="G17">
-        <v>0.0007012884342159193</v>
+        <v>0.6979758424263309</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.358895218012961</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1652239978773702</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.223926384320151</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.0475072130738</v>
+        <v>0.9558125864501505</v>
       </c>
       <c r="M17">
-        <v>0.7430828801240494</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.941691971942177</v>
+        <v>1.754988006020881</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.185419211060065</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.136612674307685</v>
+        <v>2.096403704072827</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1491244641939886</v>
+        <v>0.03768067214486592</v>
       </c>
       <c r="E18">
-        <v>1.520637994217964</v>
+        <v>0.3223569370565968</v>
       </c>
       <c r="F18">
-        <v>5.607184885794112</v>
+        <v>0.7859827875327454</v>
       </c>
       <c r="G18">
-        <v>0.000705001571491127</v>
+        <v>0.6799099315976633</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3514742409698783</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.169014878347161</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.099020143059278</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.017409916626946</v>
+        <v>0.9319894900701513</v>
       </c>
       <c r="M18">
-        <v>0.7229831130466451</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9559643444502228</v>
+        <v>1.733130483264262</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.131507520930001</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.117928173111409</v>
+        <v>2.078721829138829</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.147824000778499</v>
+        <v>0.03735536327567246</v>
       </c>
       <c r="E19">
-        <v>1.505446390644209</v>
+        <v>0.3215134076778341</v>
       </c>
       <c r="F19">
-        <v>5.552039302966818</v>
+        <v>0.7792164876143488</v>
       </c>
       <c r="G19">
-        <v>0.0007062569635221036</v>
+        <v>0.6738115307604744</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3489721441925013</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1703128829777034</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.057040322790698</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.007290616363406</v>
+        <v>0.9239282867205247</v>
       </c>
       <c r="M19">
-        <v>0.7162205910947321</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9608482391249993</v>
+        <v>1.725749541056473</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.113314822155871</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.202445951622337</v>
+        <v>2.158323677953376</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1537539963530605</v>
+        <v>0.03881986466928566</v>
       </c>
       <c r="E20">
-        <v>1.57434738156276</v>
+        <v>0.3253148438608093</v>
       </c>
       <c r="F20">
-        <v>5.802415072390488</v>
+        <v>0.809746273864647</v>
       </c>
       <c r="G20">
-        <v>0.0007006002546621519</v>
+        <v>0.7013283310735829</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3602737392236151</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1645293134707915</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.247196608293365</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.05311240840814</v>
+        <v>0.9602240929285983</v>
       </c>
       <c r="M20">
-        <v>0.74682388827609</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9390753707428914</v>
+        <v>1.759042738037095</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.195426433763799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.494947812887972</v>
+        <v>2.4263844918475</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1752239614290403</v>
+        <v>0.04375166751142956</v>
       </c>
       <c r="E21">
-        <v>1.816745541131283</v>
+        <v>0.3381777129550585</v>
       </c>
       <c r="F21">
-        <v>6.687675208319916</v>
+        <v>0.9138280481938779</v>
       </c>
       <c r="G21">
-        <v>0.0006814026950628864</v>
+        <v>0.7951550827717995</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3990197953114176</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1461324572398617</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.911043953367482</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.212718523136601</v>
+        <v>1.082553132092698</v>
       </c>
       <c r="M21">
-        <v>0.853028455431442</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8697812375152125</v>
+        <v>1.872310749043123</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.475832477035965</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.693742674158784</v>
+        <v>2.602106940127612</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1906708771816454</v>
+        <v>0.04698481686299516</v>
       </c>
       <c r="E22">
-        <v>1.985432997064635</v>
+        <v>0.3466457942668839</v>
       </c>
       <c r="F22">
-        <v>7.306506752443823</v>
+        <v>0.9830923689969069</v>
       </c>
       <c r="G22">
-        <v>0.0006686227118777628</v>
+        <v>0.8576153251233904</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4249718316099518</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1349144996219209</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.368034424044737</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.322203479532021</v>
+        <v>1.162834865506426</v>
       </c>
       <c r="M22">
-        <v>0.9254982627569603</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8277434877348782</v>
+        <v>1.947437296582308</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.662817546708453</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.586852553560789</v>
+        <v>2.508267146112985</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1822777444830592</v>
+        <v>0.0452582142941651</v>
       </c>
       <c r="E23">
-        <v>1.894303674042661</v>
+        <v>0.3421209852020795</v>
       </c>
       <c r="F23">
-        <v>6.97199548961936</v>
+        <v>0.9460032733984747</v>
       </c>
       <c r="G23">
-        <v>0.0006754715936634348</v>
+        <v>0.8241672467705996</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4110596903633592</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1408258002212781</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.121681187640803</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.263225822562532</v>
+        <v>1.119953265678532</v>
       </c>
       <c r="M23">
-        <v>0.886500759502411</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.849855463570151</v>
+        <v>1.907236913077298</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.56265589661038</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.197775395990732</v>
+        <v>2.153950215477721</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1534231144223668</v>
+        <v>0.03873940257355457</v>
       </c>
       <c r="E24">
-        <v>1.570527377555905</v>
+        <v>0.3251057310475431</v>
       </c>
       <c r="F24">
-        <v>5.78851654250775</v>
+        <v>0.8080643498867488</v>
       </c>
       <c r="G24">
-        <v>0.0007009114149263399</v>
+        <v>0.6998123527558704</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3596503250268057</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1648431094987712</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.236670339057156</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.050576981080468</v>
+        <v>0.9582295915436987</v>
       </c>
       <c r="M24">
-        <v>0.7451317884381581</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9402573539605967</v>
+        <v>1.757209264075755</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.190901110157</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.803237486226379</v>
+        <v>1.77356001239778</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1268161189647259</v>
+        <v>0.03174077081338567</v>
       </c>
       <c r="E25">
-        <v>1.252692530472189</v>
+        <v>0.3070549567302443</v>
       </c>
       <c r="F25">
-        <v>4.640522725007344</v>
+        <v>0.6638529279161816</v>
       </c>
       <c r="G25">
-        <v>0.0007278878691606424</v>
+        <v>0.5698393468182275</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3065687354447135</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1939917850214234</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.354407979156164</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8376805305815083</v>
+        <v>0.7849008554636612</v>
       </c>
       <c r="M25">
-        <v>0.6025550838549947</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.049486533822517</v>
+        <v>1.599780591267333</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.803658596377119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.494482284442995</v>
+        <v>0.8293553357516998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02660496347823482</v>
+        <v>0.008354403957902434</v>
       </c>
       <c r="E2">
-        <v>0.2940644329807292</v>
+        <v>0.4009701891499269</v>
       </c>
       <c r="F2">
-        <v>0.5608209425609942</v>
+        <v>0.368015581926592</v>
       </c>
       <c r="G2">
-        <v>0.4769618151611752</v>
+        <v>0.2392252137583739</v>
       </c>
       <c r="H2">
-        <v>0.2691805331459705</v>
+        <v>0.3487380636063904</v>
       </c>
       <c r="I2">
-        <v>0.2180210813587315</v>
+        <v>0.6322407628076663</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6578958668974906</v>
+        <v>0.2442602145456902</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.487296188595437</v>
+        <v>1.369676114756047</v>
       </c>
       <c r="O2">
-        <v>1.528030895515229</v>
+        <v>1.089643772403861</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.305728905574682</v>
+        <v>0.7728124514055992</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02313006962221209</v>
+        <v>0.007289734207173382</v>
       </c>
       <c r="E3">
-        <v>0.2854680509371903</v>
+        <v>0.3996912454548962</v>
       </c>
       <c r="F3">
-        <v>0.4926005088193932</v>
+        <v>0.3522789147792693</v>
       </c>
       <c r="G3">
-        <v>0.415430505832731</v>
+        <v>0.2241302352068573</v>
       </c>
       <c r="H3">
-        <v>0.2447427812896734</v>
+        <v>0.3449989052252533</v>
       </c>
       <c r="I3">
-        <v>0.2358031164467493</v>
+        <v>0.6433315749451842</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5720527977793211</v>
+        <v>0.2182181681758664</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.413042693055218</v>
+        <v>1.348640746459168</v>
       </c>
       <c r="O3">
-        <v>1.346094766746461</v>
+        <v>1.049535946167481</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.189948926310166</v>
+        <v>0.7382075621112847</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02099775054561448</v>
+        <v>0.00663529901271076</v>
       </c>
       <c r="E4">
-        <v>0.2802989867257075</v>
+        <v>0.3990165213267183</v>
       </c>
       <c r="F4">
-        <v>0.4513946981276362</v>
+        <v>0.3428678498180844</v>
       </c>
       <c r="G4">
-        <v>0.3782407583810539</v>
+        <v>0.2150318213095233</v>
       </c>
       <c r="H4">
-        <v>0.2301341310951415</v>
+        <v>0.3429043927951767</v>
       </c>
       <c r="I4">
-        <v>0.2474268489638289</v>
+        <v>0.6505462909663908</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5194117530544275</v>
+        <v>0.2022314481321672</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.368378408695037</v>
+        <v>1.336207966503693</v>
       </c>
       <c r="O4">
-        <v>1.23645668734369</v>
+        <v>1.025680892599183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.14278745379417</v>
+        <v>0.7241353756353988</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02012893479404454</v>
+        <v>0.006368444586602351</v>
       </c>
       <c r="E5">
-        <v>0.2782210664272</v>
+        <v>0.3987696282450486</v>
       </c>
       <c r="F5">
-        <v>0.434759214218559</v>
+        <v>0.3390959454812759</v>
       </c>
       <c r="G5">
-        <v>0.3632194775744608</v>
+        <v>0.2113667816152827</v>
       </c>
       <c r="H5">
-        <v>0.2242739704911685</v>
+        <v>0.3421015301690318</v>
       </c>
       <c r="I5">
-        <v>0.2523362326036334</v>
+        <v>0.6535881450836105</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4979708575257149</v>
+        <v>0.1957179488867666</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.350404305447967</v>
+        <v>1.331264012739695</v>
       </c>
       <c r="O5">
-        <v>1.1922540567422</v>
+        <v>1.016153575886818</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.134957266021473</v>
+        <v>0.7218005237320142</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01998467027673811</v>
+        <v>0.006324123985972818</v>
       </c>
       <c r="E6">
-        <v>0.2778777827416796</v>
+        <v>0.3987303344786532</v>
       </c>
       <c r="F6">
-        <v>0.4320059085813597</v>
+        <v>0.338473439225119</v>
       </c>
       <c r="G6">
-        <v>0.3607328728534185</v>
+        <v>0.210760776822525</v>
       </c>
       <c r="H6">
-        <v>0.2233063229108154</v>
+        <v>0.3419712768011749</v>
       </c>
       <c r="I6">
-        <v>0.2531617208720824</v>
+        <v>0.6540993904589776</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4944110920829701</v>
+        <v>0.1946364731097532</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.347433249968631</v>
+        <v>1.330450502858355</v>
       </c>
       <c r="O6">
-        <v>1.18494170215709</v>
+        <v>1.014583273778726</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.189312821730596</v>
+        <v>0.7380176582229865</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0209860331578966</v>
+        <v>0.006631700775479032</v>
       </c>
       <c r="E7">
-        <v>0.2802708462995547</v>
+        <v>0.3990130776662575</v>
       </c>
       <c r="F7">
-        <v>0.4511697332504312</v>
+        <v>0.3428167247985527</v>
       </c>
       <c r="G7">
-        <v>0.3780376531218081</v>
+        <v>0.2149822207986745</v>
       </c>
       <c r="H7">
-        <v>0.2300547309904317</v>
+        <v>0.3428933599060571</v>
       </c>
       <c r="I7">
-        <v>0.2474923659053001</v>
+        <v>0.6505869023208088</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5191225578573864</v>
+        <v>0.2021435993192995</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.368135092768625</v>
+        <v>1.336140793203839</v>
       </c>
       <c r="O7">
-        <v>1.235858686831449</v>
+        <v>1.025551619331651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.429370404074916</v>
+        <v>0.8098366984607992</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02540642996061138</v>
+        <v>0.00798746484403523</v>
       </c>
       <c r="E8">
-        <v>0.2910783879985992</v>
+        <v>0.4005064208445788</v>
       </c>
       <c r="F8">
-        <v>0.5371476150905181</v>
+        <v>0.3625374056686539</v>
       </c>
       <c r="G8">
-        <v>0.4556141286541191</v>
+        <v>0.2339851237067592</v>
       </c>
       <c r="H8">
-        <v>0.2606680467986706</v>
+        <v>0.3474070332428738</v>
       </c>
       <c r="I8">
-        <v>0.2240029780420487</v>
+        <v>0.6359808245350891</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.628279488820624</v>
+        <v>0.2352804926643586</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.46149709945567</v>
+        <v>1.362323484166254</v>
       </c>
       <c r="O8">
-        <v>1.464841510474486</v>
+        <v>1.075654407985724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.901504979768504</v>
+        <v>0.9515195880990177</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03409488350197165</v>
+        <v>0.01063982697426979</v>
       </c>
       <c r="E9">
-        <v>0.3130914352701666</v>
+        <v>0.4043008682587654</v>
       </c>
       <c r="F9">
-        <v>0.7118911641096304</v>
+        <v>0.4032067358948126</v>
       </c>
       <c r="G9">
-        <v>0.6131342393256602</v>
+        <v>0.272605023676789</v>
       </c>
       <c r="H9">
-        <v>0.3241640062778828</v>
+        <v>0.3578551815531483</v>
       </c>
       <c r="I9">
-        <v>0.1837598593697587</v>
+        <v>0.6105516498545276</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8431694055089451</v>
+        <v>0.3002722091572707</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.652255332220562</v>
+        <v>1.41745822540139</v>
       </c>
       <c r="O9">
-        <v>1.932477696695543</v>
+        <v>1.18003880048937</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.249951750241735</v>
+        <v>1.056075670166138</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04050562275337199</v>
+        <v>0.01258413275497361</v>
       </c>
       <c r="E10">
-        <v>0.3297020980565009</v>
+        <v>0.4076021244115609</v>
       </c>
       <c r="F10">
-        <v>0.8451048652019892</v>
+        <v>0.4343118377337305</v>
       </c>
       <c r="G10">
-        <v>0.7331997332344571</v>
+        <v>0.3018175671259513</v>
       </c>
       <c r="H10">
-        <v>0.3734002675105899</v>
+        <v>0.3665053041325308</v>
       </c>
       <c r="I10">
-        <v>0.1580582680570704</v>
+        <v>0.5938278779896704</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.002020256477323</v>
+        <v>0.3480123772628474</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.797566488664017</v>
+        <v>1.460225878566689</v>
       </c>
       <c r="O10">
-        <v>2.290605645055791</v>
+        <v>1.26049619156052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.408985280813567</v>
+        <v>1.103730379419403</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04343154720762499</v>
+        <v>0.01346758797208736</v>
       </c>
       <c r="E11">
-        <v>0.3373405097101951</v>
+        <v>0.4092124222222964</v>
       </c>
       <c r="F11">
-        <v>0.9070138994361656</v>
+        <v>0.4487302905739341</v>
       </c>
       <c r="G11">
-        <v>0.7890113044879286</v>
+        <v>0.3152919705290458</v>
       </c>
       <c r="H11">
-        <v>0.3964735434463904</v>
+        <v>0.3706521012745014</v>
       </c>
       <c r="I11">
-        <v>0.1472783210162909</v>
+        <v>0.5866452001819846</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.074608048332607</v>
+        <v>0.3697255831099255</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.86490813646634</v>
+        <v>1.480162495263897</v>
       </c>
       <c r="O11">
-        <v>2.457453067046288</v>
+        <v>1.297922490577264</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.469297351933164</v>
+        <v>1.12178801706159</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04454120953319318</v>
+        <v>0.01380196940544209</v>
       </c>
       <c r="E12">
-        <v>0.3402436469648435</v>
+        <v>0.4098375470151581</v>
       </c>
       <c r="F12">
-        <v>0.9306683948423995</v>
+        <v>0.4542288718730418</v>
       </c>
       <c r="G12">
-        <v>0.8103394112864066</v>
+        <v>0.3204211973422417</v>
       </c>
       <c r="H12">
-        <v>0.4053179664858959</v>
+        <v>0.3722528273535204</v>
       </c>
       <c r="I12">
-        <v>0.1433338158440307</v>
+        <v>0.5839864500823131</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.102151700036103</v>
+        <v>0.3779468679210822</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.890596722981087</v>
+        <v>1.487780240448217</v>
       </c>
       <c r="O12">
-        <v>2.521267420408918</v>
+        <v>1.312213901100478</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.456303848125856</v>
+        <v>1.117898476734524</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04430214441764235</v>
+        <v>0.01372996194653808</v>
       </c>
       <c r="E13">
-        <v>0.339617950065886</v>
+        <v>0.4097022372134305</v>
       </c>
       <c r="F13">
-        <v>0.9255642199948539</v>
+        <v>0.4530429360670922</v>
       </c>
       <c r="G13">
-        <v>0.8057370515269469</v>
+        <v>0.3193153348558724</v>
       </c>
       <c r="H13">
-        <v>0.4034082335877542</v>
+        <v>0.3719067297903962</v>
       </c>
       <c r="I13">
-        <v>0.144177107535306</v>
+        <v>0.5845563379181913</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.096217023779673</v>
+        <v>0.3761763204080921</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.885055715536964</v>
+        <v>1.486136606870019</v>
       </c>
       <c r="O13">
-        <v>2.507494588624752</v>
+        <v>1.309130700765508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.413945311497969</v>
+        <v>1.105215762649891</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0435228044253364</v>
+        <v>0.01349510111807461</v>
       </c>
       <c r="E14">
-        <v>0.3375791461198787</v>
+        <v>0.4092635457107363</v>
       </c>
       <c r="F14">
-        <v>0.9089556074503236</v>
+        <v>0.4491818880289458</v>
       </c>
       <c r="G14">
-        <v>0.7907619721205066</v>
+        <v>0.3157134182227566</v>
       </c>
       <c r="H14">
-        <v>0.3971989740233823</v>
+        <v>0.3707831844294418</v>
       </c>
       <c r="I14">
-        <v>0.1469510075285907</v>
+        <v>0.5864252368906424</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.07687289786378</v>
+        <v>0.3704019765057467</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.867017731533991</v>
+        <v>1.480787851238546</v>
       </c>
       <c r="O14">
-        <v>2.462690026530197</v>
+        <v>1.299095870200546</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.38801158497057</v>
+        <v>1.097448735368175</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04304566369599883</v>
+        <v>0.01335122022089053</v>
       </c>
       <c r="E15">
-        <v>0.3363316701381081</v>
+        <v>0.4089968242790363</v>
       </c>
       <c r="F15">
-        <v>0.8988105139867457</v>
+        <v>0.4468219149512294</v>
       </c>
       <c r="G15">
-        <v>0.7816151763897068</v>
+        <v>0.3135106282651918</v>
       </c>
       <c r="H15">
-        <v>0.3934098747527628</v>
+        <v>0.3700989415242759</v>
       </c>
       <c r="I15">
-        <v>0.1486682230838667</v>
+        <v>0.5875779597049666</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.065031675880192</v>
+        <v>0.3668648758574022</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.855993694173378</v>
+        <v>1.477520432353174</v>
       </c>
       <c r="O15">
-        <v>2.435330433091792</v>
+        <v>1.292964732601888</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.239570261908398</v>
+        <v>1.05296305175716</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04031462527731122</v>
+        <v>0.01252637489091768</v>
       </c>
       <c r="E16">
-        <v>0.3292044623253503</v>
+        <v>0.4074990488351418</v>
       </c>
       <c r="F16">
-        <v>0.8410872092273678</v>
+        <v>0.4333749629507082</v>
       </c>
       <c r="G16">
-        <v>0.7295781625215483</v>
+        <v>0.3009407232612915</v>
       </c>
       <c r="H16">
-        <v>0.3719068006617476</v>
+        <v>0.3662385604735761</v>
       </c>
       <c r="I16">
-        <v>0.1587816602422363</v>
+        <v>0.5943058404501427</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9972838148463268</v>
+        <v>0.346593248112697</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.793191291041438</v>
+        <v>1.458932571346224</v>
       </c>
       <c r="O16">
-        <v>2.279786562334607</v>
+        <v>1.258066923962588</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.148650183912423</v>
+        <v>1.025695036876243</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03864189363893189</v>
+        <v>0.01202008564928292</v>
       </c>
       <c r="E17">
-        <v>0.3248523533687546</v>
+        <v>0.4066078208117432</v>
       </c>
       <c r="F17">
-        <v>0.8060267988009855</v>
+        <v>0.4251944882691987</v>
       </c>
       <c r="G17">
-        <v>0.6979758424263309</v>
+        <v>0.2932770636235489</v>
       </c>
       <c r="H17">
-        <v>0.358895218012961</v>
+        <v>0.36392456779474</v>
       </c>
       <c r="I17">
-        <v>0.1652239978773702</v>
+        <v>0.598542080157257</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9558125864501505</v>
+        <v>0.3341559038144055</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.754988006020881</v>
+        <v>1.447652072999801</v>
       </c>
       <c r="O17">
-        <v>2.185419211060065</v>
+        <v>1.236869857913604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.096403704072827</v>
+        <v>1.010019899921645</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03768067214486592</v>
+        <v>0.01172878657389731</v>
       </c>
       <c r="E18">
-        <v>0.3223569370565968</v>
+        <v>0.4061054422651864</v>
       </c>
       <c r="F18">
-        <v>0.7859827875327454</v>
+        <v>0.4205145761161475</v>
       </c>
       <c r="G18">
-        <v>0.6799099315976633</v>
+        <v>0.2888865813405062</v>
       </c>
       <c r="H18">
-        <v>0.3514742409698783</v>
+        <v>0.3626135593426199</v>
       </c>
       <c r="I18">
-        <v>0.169014878347161</v>
+        <v>0.6010186577654917</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9319894900701513</v>
+        <v>0.3270019195981888</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.733130483264262</v>
+        <v>1.441209201860772</v>
       </c>
       <c r="O18">
-        <v>2.131507520930001</v>
+        <v>1.224755589655132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.078721829138829</v>
+        <v>1.004714103744334</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03735536327567246</v>
+        <v>0.01163014193991074</v>
       </c>
       <c r="E19">
-        <v>0.3215134076778341</v>
+        <v>0.4059371110981544</v>
       </c>
       <c r="F19">
-        <v>0.7792164876143488</v>
+        <v>0.4189343800700414</v>
       </c>
       <c r="G19">
-        <v>0.6738115307604744</v>
+        <v>0.2874030340335025</v>
       </c>
       <c r="H19">
-        <v>0.3489721441925013</v>
+        <v>0.3621730999800263</v>
       </c>
       <c r="I19">
-        <v>0.1703128829777034</v>
+        <v>0.6018640536164854</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9239282867205247</v>
+        <v>0.3245796567386208</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.725749541056473</v>
+        <v>1.439035581205502</v>
       </c>
       <c r="O19">
-        <v>2.113314822155871</v>
+        <v>1.220667251585013</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.158323677953376</v>
+        <v>1.028596872507876</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03881986466928566</v>
+        <v>0.01207399095006423</v>
       </c>
       <c r="E20">
-        <v>0.3253148438608093</v>
+        <v>0.4067016365024756</v>
       </c>
       <c r="F20">
-        <v>0.809746273864647</v>
+        <v>0.4260626972898365</v>
       </c>
       <c r="G20">
-        <v>0.7013283310735829</v>
+        <v>0.2940910663780585</v>
       </c>
       <c r="H20">
-        <v>0.3602737392236151</v>
+        <v>0.3641688329080495</v>
       </c>
       <c r="I20">
-        <v>0.1645293134707915</v>
+        <v>0.5980869845058123</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9602240929285983</v>
+        <v>0.3354799201476339</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.759042738037095</v>
+        <v>1.448848212938316</v>
       </c>
       <c r="O20">
-        <v>2.195426433763799</v>
+        <v>1.23911827672552</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.4263844918475</v>
+        <v>1.108940672730057</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04375166751142956</v>
+        <v>0.01356409002243453</v>
       </c>
       <c r="E21">
-        <v>0.3381777129550585</v>
+        <v>0.4093919858475061</v>
       </c>
       <c r="F21">
-        <v>0.9138280481938779</v>
+        <v>0.4503149231113213</v>
       </c>
       <c r="G21">
-        <v>0.7951550827717995</v>
+        <v>0.3167706613962906</v>
       </c>
       <c r="H21">
-        <v>0.3990197953114176</v>
+        <v>0.3711123715158635</v>
       </c>
       <c r="I21">
-        <v>0.1461324572398617</v>
+        <v>0.5858746352941928</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.082553132092698</v>
+        <v>0.3720980729937935</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.872310749043123</v>
+        <v>1.482357068278276</v>
       </c>
       <c r="O21">
-        <v>2.475832477035965</v>
+        <v>1.302040115720416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.602106940127612</v>
+        <v>1.161518344932631</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04698481686299516</v>
+        <v>0.01453699256988017</v>
       </c>
       <c r="E22">
-        <v>0.3466457942668839</v>
+        <v>0.4112395740627832</v>
       </c>
       <c r="F22">
-        <v>0.9830923689969069</v>
+        <v>0.4663902972515501</v>
       </c>
       <c r="G22">
-        <v>0.8576153251233904</v>
+        <v>0.3317491221454958</v>
       </c>
       <c r="H22">
-        <v>0.4249718316099518</v>
+        <v>0.3758276933411935</v>
       </c>
       <c r="I22">
-        <v>0.1349144996219209</v>
+        <v>0.5782497529251724</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.162834865506426</v>
+        <v>0.39602390907055</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.947437296582308</v>
+        <v>1.504653975998735</v>
       </c>
       <c r="O22">
-        <v>2.662817546708453</v>
+        <v>1.343856173712624</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.508267146112985</v>
+        <v>1.133450839858938</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0452582142941651</v>
+        <v>0.01401783005906765</v>
       </c>
       <c r="E23">
-        <v>0.3421209852020795</v>
+        <v>0.4102453997441629</v>
       </c>
       <c r="F23">
-        <v>0.9460032733984747</v>
+        <v>0.4577899663822791</v>
       </c>
       <c r="G23">
-        <v>0.8241672467705996</v>
+        <v>0.3237405287952271</v>
       </c>
       <c r="H23">
-        <v>0.4110596903633592</v>
+        <v>0.3732948242693794</v>
       </c>
       <c r="I23">
-        <v>0.1408258002212781</v>
+        <v>0.5822866504599382</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.119953265678532</v>
+        <v>0.3832549615241874</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.907236913077298</v>
+        <v>1.492717719727921</v>
       </c>
       <c r="O23">
-        <v>2.56265589661038</v>
+        <v>1.321474705839449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.153950215477721</v>
+        <v>1.027284947505848</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03873940257355457</v>
+        <v>0.01204962106824325</v>
       </c>
       <c r="E24">
-        <v>0.3251057310475431</v>
+        <v>0.4066591912595072</v>
       </c>
       <c r="F24">
-        <v>0.8080643498867488</v>
+        <v>0.425670107876357</v>
       </c>
       <c r="G24">
-        <v>0.6998123527558704</v>
+        <v>0.2937230075908559</v>
       </c>
       <c r="H24">
-        <v>0.3596503250268057</v>
+        <v>0.364058340414033</v>
       </c>
       <c r="I24">
-        <v>0.1648431094987712</v>
+        <v>0.5982926052097524</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9582295915436987</v>
+        <v>0.3348813435103182</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.757209264075755</v>
+        <v>1.448307305803496</v>
       </c>
       <c r="O24">
-        <v>2.190901110157</v>
+        <v>1.238101541669522</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.77356001239778</v>
+        <v>0.9131056473623858</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03174077081338567</v>
+        <v>0.009923022574177764</v>
       </c>
       <c r="E25">
-        <v>0.3070549567302443</v>
+        <v>0.4031831563568247</v>
       </c>
       <c r="F25">
-        <v>0.6638529279161816</v>
+        <v>0.3919899786681071</v>
       </c>
       <c r="G25">
-        <v>0.5698393468182275</v>
+        <v>0.2620109472579486</v>
       </c>
       <c r="H25">
-        <v>0.3065687354447135</v>
+        <v>0.3548576853212211</v>
       </c>
       <c r="I25">
-        <v>0.1939917850214234</v>
+        <v>0.6170868968725438</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7849008554636612</v>
+        <v>0.2826907280841908</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.599780591267333</v>
+        <v>1.402142282880959</v>
       </c>
       <c r="O25">
-        <v>1.803658596377119</v>
+        <v>1.151140629905967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8293553357516998</v>
+        <v>1.494482284442967</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008354403957902434</v>
+        <v>0.02660496347793639</v>
       </c>
       <c r="E2">
-        <v>0.4009701891499269</v>
+        <v>0.2940644329807149</v>
       </c>
       <c r="F2">
-        <v>0.368015581926592</v>
+        <v>0.5608209425609871</v>
       </c>
       <c r="G2">
-        <v>0.2392252137583739</v>
+        <v>0.4769618151611752</v>
       </c>
       <c r="H2">
-        <v>0.3487380636063904</v>
+        <v>0.2691805331458568</v>
       </c>
       <c r="I2">
-        <v>0.6322407628076663</v>
+        <v>0.2180210813587315</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2442602145456902</v>
+        <v>0.6578958668974622</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.369676114756047</v>
+        <v>1.487296188595437</v>
       </c>
       <c r="O2">
-        <v>1.089643772403861</v>
+        <v>1.528030895515229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7728124514055992</v>
+        <v>1.305728905574455</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007289734207173382</v>
+        <v>0.02313006962236841</v>
       </c>
       <c r="E3">
-        <v>0.3996912454548962</v>
+        <v>0.2854680509371867</v>
       </c>
       <c r="F3">
-        <v>0.3522789147792693</v>
+        <v>0.4926005088194003</v>
       </c>
       <c r="G3">
-        <v>0.2241302352068573</v>
+        <v>0.4154305058327168</v>
       </c>
       <c r="H3">
-        <v>0.3449989052252533</v>
+        <v>0.2447427812895597</v>
       </c>
       <c r="I3">
-        <v>0.6433315749451842</v>
+        <v>0.2358031164467471</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2182181681758664</v>
+        <v>0.5720527977792926</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.348640746459168</v>
+        <v>1.413042693055274</v>
       </c>
       <c r="O3">
-        <v>1.049535946167481</v>
+        <v>1.346094766746489</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7382075621112847</v>
+        <v>1.189948926310052</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00663529901271076</v>
+        <v>0.02099775054566067</v>
       </c>
       <c r="E4">
-        <v>0.3990165213267183</v>
+        <v>0.2802989867257182</v>
       </c>
       <c r="F4">
-        <v>0.3428678498180844</v>
+        <v>0.451394698127622</v>
       </c>
       <c r="G4">
-        <v>0.2150318213095233</v>
+        <v>0.3782407583810254</v>
       </c>
       <c r="H4">
-        <v>0.3429043927951767</v>
+        <v>0.2301341310951415</v>
       </c>
       <c r="I4">
-        <v>0.6505462909663908</v>
+        <v>0.2474268489638378</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2022314481321672</v>
+        <v>0.5194117530545839</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.336207966503693</v>
+        <v>1.368378408695037</v>
       </c>
       <c r="O4">
-        <v>1.025680892599183</v>
+        <v>1.236456687343662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7241353756353988</v>
+        <v>1.14278745379417</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006368444586602351</v>
+        <v>0.02012893479404454</v>
       </c>
       <c r="E5">
-        <v>0.3987696282450486</v>
+        <v>0.2782210664271965</v>
       </c>
       <c r="F5">
-        <v>0.3390959454812759</v>
+        <v>0.4347592142185448</v>
       </c>
       <c r="G5">
-        <v>0.2113667816152827</v>
+        <v>0.3632194775744608</v>
       </c>
       <c r="H5">
-        <v>0.3421015301690318</v>
+        <v>0.2242739704910548</v>
       </c>
       <c r="I5">
-        <v>0.6535881450836105</v>
+        <v>0.2523362326036334</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1957179488867666</v>
+        <v>0.4979708575257717</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.331264012739695</v>
+        <v>1.350404305447967</v>
       </c>
       <c r="O5">
-        <v>1.016153575886818</v>
+        <v>1.1922540567422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7218005237320142</v>
+        <v>1.134957266021502</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006324123985972818</v>
+        <v>0.01998467027669193</v>
       </c>
       <c r="E6">
-        <v>0.3987303344786532</v>
+        <v>0.2778777827416974</v>
       </c>
       <c r="F6">
-        <v>0.338473439225119</v>
+        <v>0.4320059085813526</v>
       </c>
       <c r="G6">
-        <v>0.210760776822525</v>
+        <v>0.3607328728534895</v>
       </c>
       <c r="H6">
-        <v>0.3419712768011749</v>
+        <v>0.2233063229108154</v>
       </c>
       <c r="I6">
-        <v>0.6540993904589776</v>
+        <v>0.2531617208720802</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1946364731097532</v>
+        <v>0.4944110920830553</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.330450502858355</v>
+        <v>1.347433249968603</v>
       </c>
       <c r="O6">
-        <v>1.014583273778726</v>
+        <v>1.18494170215709</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7380176582229865</v>
+        <v>1.189312821730567</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006631700775479032</v>
+        <v>0.02098603315790015</v>
       </c>
       <c r="E7">
-        <v>0.3990130776662575</v>
+        <v>0.2802708462995298</v>
       </c>
       <c r="F7">
-        <v>0.3428167247985527</v>
+        <v>0.4511697332504312</v>
       </c>
       <c r="G7">
-        <v>0.2149822207986745</v>
+        <v>0.3780376531217655</v>
       </c>
       <c r="H7">
-        <v>0.3428933599060571</v>
+        <v>0.2300547309904317</v>
       </c>
       <c r="I7">
-        <v>0.6505869023208088</v>
+        <v>0.2474923659052961</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2021435993192995</v>
+        <v>0.5191225578573295</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.336140793203839</v>
+        <v>1.368135092768625</v>
       </c>
       <c r="O7">
-        <v>1.025551619331651</v>
+        <v>1.235858686831392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8098366984607992</v>
+        <v>1.429370404074916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00798746484403523</v>
+        <v>0.02540642996067533</v>
       </c>
       <c r="E8">
-        <v>0.4005064208445788</v>
+        <v>0.2910783879986028</v>
       </c>
       <c r="F8">
-        <v>0.3625374056686539</v>
+        <v>0.5371476150905181</v>
       </c>
       <c r="G8">
-        <v>0.2339851237067592</v>
+        <v>0.4556141286541475</v>
       </c>
       <c r="H8">
-        <v>0.3474070332428738</v>
+        <v>0.2606680467985569</v>
       </c>
       <c r="I8">
-        <v>0.6359808245350891</v>
+        <v>0.2240029780420461</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2352804926643586</v>
+        <v>0.628279488820624</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.362323484166254</v>
+        <v>1.461497099455599</v>
       </c>
       <c r="O8">
-        <v>1.075654407985724</v>
+        <v>1.464841510474429</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9515195880990177</v>
+        <v>1.901504979768532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01063982697426979</v>
+        <v>0.03409488350187928</v>
       </c>
       <c r="E9">
-        <v>0.4043008682587654</v>
+        <v>0.3130914352701595</v>
       </c>
       <c r="F9">
-        <v>0.4032067358948126</v>
+        <v>0.7118911641096304</v>
       </c>
       <c r="G9">
-        <v>0.272605023676789</v>
+        <v>0.613134239325575</v>
       </c>
       <c r="H9">
-        <v>0.3578551815531483</v>
+        <v>0.324164006277897</v>
       </c>
       <c r="I9">
-        <v>0.6105516498545276</v>
+        <v>0.183759859369764</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3002722091572707</v>
+        <v>0.8431694055089451</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.41745822540139</v>
+        <v>1.652255332220534</v>
       </c>
       <c r="O9">
-        <v>1.18003880048937</v>
+        <v>1.932477696695486</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.056075670166138</v>
+        <v>2.249951750241678</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01258413275497361</v>
+        <v>0.04050562275315173</v>
       </c>
       <c r="E10">
-        <v>0.4076021244115609</v>
+        <v>0.3297020980565009</v>
       </c>
       <c r="F10">
-        <v>0.4343118377337305</v>
+        <v>0.8451048652019892</v>
       </c>
       <c r="G10">
-        <v>0.3018175671259513</v>
+        <v>0.7331997332345139</v>
       </c>
       <c r="H10">
-        <v>0.3665053041325308</v>
+        <v>0.3734002675107035</v>
       </c>
       <c r="I10">
-        <v>0.5938278779896704</v>
+        <v>0.1580582680570721</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3480123772628474</v>
+        <v>1.002020256477323</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.460225878566689</v>
+        <v>1.797566488663932</v>
       </c>
       <c r="O10">
-        <v>1.26049619156052</v>
+        <v>2.290605645055876</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.103730379419403</v>
+        <v>2.408985280813624</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01346758797208736</v>
+        <v>0.04343154720767473</v>
       </c>
       <c r="E11">
-        <v>0.4092124222222964</v>
+        <v>0.3373405097101951</v>
       </c>
       <c r="F11">
-        <v>0.4487302905739341</v>
+        <v>0.9070138994361798</v>
       </c>
       <c r="G11">
-        <v>0.3152919705290458</v>
+        <v>0.7890113044880422</v>
       </c>
       <c r="H11">
-        <v>0.3706521012745014</v>
+        <v>0.3964735434462909</v>
       </c>
       <c r="I11">
-        <v>0.5866452001819846</v>
+        <v>0.1472783210162714</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3697255831099255</v>
+        <v>1.074608048332635</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.480162495263897</v>
+        <v>1.864908136466426</v>
       </c>
       <c r="O11">
-        <v>1.297922490577264</v>
+        <v>2.457453067046316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.12178801706159</v>
+        <v>2.469297351933108</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01380196940544209</v>
+        <v>0.04454120953325713</v>
       </c>
       <c r="E12">
-        <v>0.4098375470151581</v>
+        <v>0.3402436469648435</v>
       </c>
       <c r="F12">
-        <v>0.4542288718730418</v>
+        <v>0.9306683948423995</v>
       </c>
       <c r="G12">
-        <v>0.3204211973422417</v>
+        <v>0.8103394112864208</v>
       </c>
       <c r="H12">
-        <v>0.3722528273535204</v>
+        <v>0.4053179664857822</v>
       </c>
       <c r="I12">
-        <v>0.5839864500823131</v>
+        <v>0.1433338158440174</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3779468679210822</v>
+        <v>1.102151700036188</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.487780240448217</v>
+        <v>1.890596722981087</v>
       </c>
       <c r="O12">
-        <v>1.312213901100478</v>
+        <v>2.521267420408947</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.117898476734524</v>
+        <v>2.45630384812597</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01372996194653808</v>
+        <v>0.04430214441753577</v>
       </c>
       <c r="E13">
-        <v>0.4097022372134305</v>
+        <v>0.339617950065886</v>
       </c>
       <c r="F13">
-        <v>0.4530429360670922</v>
+        <v>0.9255642199948539</v>
       </c>
       <c r="G13">
-        <v>0.3193153348558724</v>
+        <v>0.8057370515269611</v>
       </c>
       <c r="H13">
-        <v>0.3719067297903962</v>
+        <v>0.4034082335877542</v>
       </c>
       <c r="I13">
-        <v>0.5845563379181913</v>
+        <v>0.1441771075352998</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3761763204080921</v>
+        <v>1.09621702377973</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.486136606870019</v>
+        <v>1.885055715537078</v>
       </c>
       <c r="O13">
-        <v>1.309130700765508</v>
+        <v>2.507494588624667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.105215762649891</v>
+        <v>2.413945311497912</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01349510111807461</v>
+        <v>0.04352280442562773</v>
       </c>
       <c r="E14">
-        <v>0.4092635457107363</v>
+        <v>0.3375791461198503</v>
       </c>
       <c r="F14">
-        <v>0.4491818880289458</v>
+        <v>0.9089556074503236</v>
       </c>
       <c r="G14">
-        <v>0.3157134182227566</v>
+        <v>0.7907619721205066</v>
       </c>
       <c r="H14">
-        <v>0.3707831844294418</v>
+        <v>0.3971989740232686</v>
       </c>
       <c r="I14">
-        <v>0.5864252368906424</v>
+        <v>0.1469510075285898</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3704019765057467</v>
+        <v>1.076872897863751</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.480787851238546</v>
+        <v>1.867017731533991</v>
       </c>
       <c r="O14">
-        <v>1.299095870200546</v>
+        <v>2.462690026530197</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.097448735368175</v>
+        <v>2.388011584970968</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01335122022089053</v>
+        <v>0.04304566369587093</v>
       </c>
       <c r="E15">
-        <v>0.4089968242790363</v>
+        <v>0.3363316701380654</v>
       </c>
       <c r="F15">
-        <v>0.4468219149512294</v>
+        <v>0.8988105139867741</v>
       </c>
       <c r="G15">
-        <v>0.3135106282651918</v>
+        <v>0.7816151763896215</v>
       </c>
       <c r="H15">
-        <v>0.3700989415242759</v>
+        <v>0.3934098747527628</v>
       </c>
       <c r="I15">
-        <v>0.5875779597049666</v>
+        <v>0.1486682230838623</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3668648758574022</v>
+        <v>1.065031675880192</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.477520432353174</v>
+        <v>1.855993694173463</v>
       </c>
       <c r="O15">
-        <v>1.292964732601888</v>
+        <v>2.435330433091764</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05296305175716</v>
+        <v>2.239570261908511</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01252637489091768</v>
+        <v>0.04031462527708385</v>
       </c>
       <c r="E16">
-        <v>0.4074990488351418</v>
+        <v>0.3292044623253219</v>
       </c>
       <c r="F16">
-        <v>0.4333749629507082</v>
+        <v>0.8410872092273678</v>
       </c>
       <c r="G16">
-        <v>0.3009407232612915</v>
+        <v>0.7295781625215767</v>
       </c>
       <c r="H16">
-        <v>0.3662385604735761</v>
+        <v>0.3719068006617476</v>
       </c>
       <c r="I16">
-        <v>0.5943058404501427</v>
+        <v>0.1587816602422176</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.346593248112697</v>
+        <v>0.9972838148461847</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.458932571346224</v>
+        <v>1.793191291041438</v>
       </c>
       <c r="O16">
-        <v>1.258066923962588</v>
+        <v>2.27978656233455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.025695036876243</v>
+        <v>2.14865018391248</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01202008564928292</v>
+        <v>0.03864189363891768</v>
       </c>
       <c r="E17">
-        <v>0.4066078208117432</v>
+        <v>0.3248523533687546</v>
       </c>
       <c r="F17">
-        <v>0.4251944882691987</v>
+        <v>0.8060267988009855</v>
       </c>
       <c r="G17">
-        <v>0.2932770636235489</v>
+        <v>0.6979758424263451</v>
       </c>
       <c r="H17">
-        <v>0.36392456779474</v>
+        <v>0.3588952180129752</v>
       </c>
       <c r="I17">
-        <v>0.598542080157257</v>
+        <v>0.1652239978773711</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3341559038144055</v>
+        <v>0.9558125864500653</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.447652072999801</v>
+        <v>1.754988006020824</v>
       </c>
       <c r="O17">
-        <v>1.236869857913604</v>
+        <v>2.185419211060037</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.010019899921645</v>
+        <v>2.096403704072827</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01172878657389731</v>
+        <v>0.03768067214497961</v>
       </c>
       <c r="E18">
-        <v>0.4061054422651864</v>
+        <v>0.3223569370566324</v>
       </c>
       <c r="F18">
-        <v>0.4205145761161475</v>
+        <v>0.7859827875327596</v>
       </c>
       <c r="G18">
-        <v>0.2888865813405062</v>
+        <v>0.6799099315976633</v>
       </c>
       <c r="H18">
-        <v>0.3626135593426199</v>
+        <v>0.3514742409698925</v>
       </c>
       <c r="I18">
-        <v>0.6010186577654917</v>
+        <v>0.169014878347161</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3270019195981888</v>
+        <v>0.9319894900701229</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.441209201860772</v>
+        <v>1.733130483264233</v>
       </c>
       <c r="O18">
-        <v>1.224755589655132</v>
+        <v>2.131507520930057</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.004714103744334</v>
+        <v>2.078721829138829</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01163014193991074</v>
+        <v>0.03735536327549482</v>
       </c>
       <c r="E19">
-        <v>0.4059371110981544</v>
+        <v>0.321513407677827</v>
       </c>
       <c r="F19">
-        <v>0.4189343800700414</v>
+        <v>0.7792164876143488</v>
       </c>
       <c r="G19">
-        <v>0.2874030340335025</v>
+        <v>0.6738115307604886</v>
       </c>
       <c r="H19">
-        <v>0.3621730999800263</v>
+        <v>0.348972144192615</v>
       </c>
       <c r="I19">
-        <v>0.6018640536164854</v>
+        <v>0.1703128829777043</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3245796567386208</v>
+        <v>0.9239282867203542</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.439035581205502</v>
+        <v>1.72574954105653</v>
       </c>
       <c r="O19">
-        <v>1.220667251585013</v>
+        <v>2.1133148221559</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.028596872507876</v>
+        <v>2.158323677953376</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01207399095006423</v>
+        <v>0.03881986466939935</v>
       </c>
       <c r="E20">
-        <v>0.4067016365024756</v>
+        <v>0.3253148438607951</v>
       </c>
       <c r="F20">
-        <v>0.4260626972898365</v>
+        <v>0.8097462738646755</v>
       </c>
       <c r="G20">
-        <v>0.2940910663780585</v>
+        <v>0.7013283310734977</v>
       </c>
       <c r="H20">
-        <v>0.3641688329080495</v>
+        <v>0.3602737392236293</v>
       </c>
       <c r="I20">
-        <v>0.5980869845058123</v>
+        <v>0.1645293134707915</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3354799201476339</v>
+        <v>0.9602240929285983</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.448848212938316</v>
+        <v>1.759042738037181</v>
       </c>
       <c r="O20">
-        <v>1.23911827672552</v>
+        <v>2.195426433763799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.108940672730057</v>
+        <v>2.426384491847443</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01356409002243453</v>
+        <v>0.04375166751137982</v>
       </c>
       <c r="E21">
-        <v>0.4093919858475061</v>
+        <v>0.3381777129550301</v>
       </c>
       <c r="F21">
-        <v>0.4503149231113213</v>
+        <v>0.9138280481938779</v>
       </c>
       <c r="G21">
-        <v>0.3167706613962906</v>
+        <v>0.7951550827717142</v>
       </c>
       <c r="H21">
-        <v>0.3711123715158635</v>
+        <v>0.3990197953114318</v>
       </c>
       <c r="I21">
-        <v>0.5858746352941928</v>
+        <v>0.1461324572398439</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3720980729937935</v>
+        <v>1.082553132092841</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.482357068278276</v>
+        <v>1.872310749043095</v>
       </c>
       <c r="O21">
-        <v>1.302040115720416</v>
+        <v>2.475832477035965</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.161518344932631</v>
+        <v>2.602106940127612</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01453699256988017</v>
+        <v>0.04698481686276779</v>
       </c>
       <c r="E22">
-        <v>0.4112395740627832</v>
+        <v>0.3466457942668697</v>
       </c>
       <c r="F22">
-        <v>0.4663902972515501</v>
+        <v>0.9830923689968927</v>
       </c>
       <c r="G22">
-        <v>0.3317491221454958</v>
+        <v>0.8576153251233904</v>
       </c>
       <c r="H22">
-        <v>0.3758276933411935</v>
+        <v>0.4249718316099518</v>
       </c>
       <c r="I22">
-        <v>0.5782497529251724</v>
+        <v>0.1349144996219183</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.39602390907055</v>
+        <v>1.162834865506539</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.504653975998735</v>
+        <v>1.947437296582308</v>
       </c>
       <c r="O22">
-        <v>1.343856173712624</v>
+        <v>2.66281754670851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.133450839858938</v>
+        <v>2.508267146113042</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01401783005906765</v>
+        <v>0.045258214294293</v>
       </c>
       <c r="E23">
-        <v>0.4102453997441629</v>
+        <v>0.3421209852020581</v>
       </c>
       <c r="F23">
-        <v>0.4577899663822791</v>
+        <v>0.9460032733984605</v>
       </c>
       <c r="G23">
-        <v>0.3237405287952271</v>
+        <v>0.8241672467705996</v>
       </c>
       <c r="H23">
-        <v>0.3732948242693794</v>
+        <v>0.4110596903633734</v>
       </c>
       <c r="I23">
-        <v>0.5822866504599382</v>
+        <v>0.1408258002212746</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3832549615241874</v>
+        <v>1.119953265678532</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.492717719727921</v>
+        <v>1.90723691307727</v>
       </c>
       <c r="O23">
-        <v>1.321474705839449</v>
+        <v>2.562655896610437</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.027284947505848</v>
+        <v>2.153950215477721</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01204962106824325</v>
+        <v>0.03873940257349773</v>
       </c>
       <c r="E24">
-        <v>0.4066591912595072</v>
+        <v>0.325105731047536</v>
       </c>
       <c r="F24">
-        <v>0.425670107876357</v>
+        <v>0.8080643498867488</v>
       </c>
       <c r="G24">
-        <v>0.2937230075908559</v>
+        <v>0.6998123527558278</v>
       </c>
       <c r="H24">
-        <v>0.364058340414033</v>
+        <v>0.3596503250268057</v>
       </c>
       <c r="I24">
-        <v>0.5982926052097524</v>
+        <v>0.1648431094987561</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3348813435103182</v>
+        <v>0.9582295915438124</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.448307305803496</v>
+        <v>1.757209264075811</v>
       </c>
       <c r="O24">
-        <v>1.238101541669522</v>
+        <v>2.190901110156972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9131056473623858</v>
+        <v>1.773560012397326</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009923022574177764</v>
+        <v>0.03174077081332172</v>
       </c>
       <c r="E25">
-        <v>0.4031831563568247</v>
+        <v>0.3070549567302372</v>
       </c>
       <c r="F25">
-        <v>0.3919899786681071</v>
+        <v>0.6638529279161816</v>
       </c>
       <c r="G25">
-        <v>0.2620109472579486</v>
+        <v>0.5698393468182417</v>
       </c>
       <c r="H25">
-        <v>0.3548576853212211</v>
+        <v>0.3065687354448414</v>
       </c>
       <c r="I25">
-        <v>0.6170868968725438</v>
+        <v>0.1939917850214208</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2826907280841908</v>
+        <v>0.7849008554636612</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.402142282880959</v>
+        <v>1.59978059126739</v>
       </c>
       <c r="O25">
-        <v>1.151140629905967</v>
+        <v>1.803658596377147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.494482284442967</v>
+        <v>0.6371770544873243</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02660496347793639</v>
+        <v>0.03974632806224676</v>
       </c>
       <c r="E2">
-        <v>0.2940644329807149</v>
+        <v>0.1249761534663882</v>
       </c>
       <c r="F2">
-        <v>0.5608209425609871</v>
+        <v>0.7939417635341641</v>
       </c>
       <c r="G2">
-        <v>0.4769618151611752</v>
+        <v>0.7108655085070126</v>
       </c>
       <c r="H2">
-        <v>0.2691805331458568</v>
+        <v>0.007929098668509382</v>
       </c>
       <c r="I2">
-        <v>0.2180210813587315</v>
+        <v>0.01725803433178008</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4859186434344736</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5398437253852357</v>
       </c>
       <c r="L2">
-        <v>0.6578958668974622</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.656029256101448</v>
       </c>
       <c r="N2">
-        <v>1.487296188595437</v>
+        <v>0.2414887570957518</v>
       </c>
       <c r="O2">
-        <v>1.528030895515229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1969444886425933</v>
+      </c>
+      <c r="P2">
+        <v>1.045515556784514</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.305728905574455</v>
+        <v>0.5609256684886645</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02313006962236841</v>
+        <v>0.03724648478791792</v>
       </c>
       <c r="E3">
-        <v>0.2854680509371867</v>
+        <v>0.1164594292419512</v>
       </c>
       <c r="F3">
-        <v>0.4926005088194003</v>
+        <v>0.7330854940170184</v>
       </c>
       <c r="G3">
-        <v>0.4154305058327168</v>
+        <v>0.6571305243382852</v>
       </c>
       <c r="H3">
-        <v>0.2447427812895597</v>
+        <v>0.01015445662081406</v>
       </c>
       <c r="I3">
-        <v>0.2358031164467471</v>
+        <v>0.01999745011977572</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4662028616314018</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5368981820741574</v>
       </c>
       <c r="L3">
-        <v>0.5720527977792926</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.441755469748728</v>
       </c>
       <c r="N3">
-        <v>1.413042693055274</v>
+        <v>0.2114825008593897</v>
       </c>
       <c r="O3">
-        <v>1.346094766746489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1729793411202962</v>
+      </c>
+      <c r="P3">
+        <v>1.078496077096467</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.189948926310052</v>
+        <v>0.5136184151848084</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02099775054566067</v>
+        <v>0.03570638828798423</v>
       </c>
       <c r="E4">
-        <v>0.2802989867257182</v>
+        <v>0.1112622513185393</v>
       </c>
       <c r="F4">
-        <v>0.451394698127622</v>
+        <v>0.6965579037588228</v>
       </c>
       <c r="G4">
-        <v>0.3782407583810254</v>
+        <v>0.6249016185200844</v>
       </c>
       <c r="H4">
-        <v>0.2301341310951415</v>
+        <v>0.01171328326994774</v>
       </c>
       <c r="I4">
-        <v>0.2474268489638378</v>
+        <v>0.02188059191337599</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4545807963045547</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5351316027474162</v>
       </c>
       <c r="L4">
-        <v>0.5194117530545839</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.310797970111878</v>
       </c>
       <c r="N4">
-        <v>1.368378408695037</v>
+        <v>0.193186643469005</v>
       </c>
       <c r="O4">
-        <v>1.236456687343662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1582177546157588</v>
+      </c>
+      <c r="P4">
+        <v>1.09925394755107</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.14278745379417</v>
+        <v>0.4930993366091201</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02012893479404454</v>
+        <v>0.03510444905518284</v>
       </c>
       <c r="E5">
-        <v>0.2782210664271965</v>
+        <v>0.1091739659337048</v>
       </c>
       <c r="F5">
-        <v>0.4347592142185448</v>
+        <v>0.6813330655780021</v>
       </c>
       <c r="G5">
-        <v>0.3632194775744608</v>
+        <v>0.6113550837037138</v>
       </c>
       <c r="H5">
-        <v>0.2242739704910548</v>
+        <v>0.01240038451638309</v>
       </c>
       <c r="I5">
-        <v>0.2523362326036334</v>
+        <v>0.02279373984068389</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4496558619318165</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5338266857465506</v>
       </c>
       <c r="L5">
-        <v>0.4979708575257717</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.258227932564893</v>
       </c>
       <c r="N5">
-        <v>1.350404305447967</v>
+        <v>0.1859997407524219</v>
       </c>
       <c r="O5">
-        <v>1.1922540567422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.152068773503057</v>
+      </c>
+      <c r="P5">
+        <v>1.107446490489751</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.134957266021502</v>
+        <v>0.4883162118558886</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01998467027669193</v>
+        <v>0.03503773503078023</v>
       </c>
       <c r="E6">
-        <v>0.2778777827416974</v>
+        <v>0.1088593397620308</v>
       </c>
       <c r="F6">
-        <v>0.4320059085813526</v>
+        <v>0.678161761216117</v>
       </c>
       <c r="G6">
-        <v>0.3607328728534895</v>
+        <v>0.6083937676557269</v>
       </c>
       <c r="H6">
-        <v>0.2233063229108154</v>
+        <v>0.01252361786321789</v>
       </c>
       <c r="I6">
-        <v>0.2531617208720802</v>
+        <v>0.02307348635305395</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4484732503522366</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5328842717695181</v>
       </c>
       <c r="L6">
-        <v>0.4944110920830553</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.250327256783436</v>
       </c>
       <c r="N6">
-        <v>1.347433249968603</v>
+        <v>0.1851017205877952</v>
       </c>
       <c r="O6">
-        <v>1.18494170215709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1508988407934702</v>
+      </c>
+      <c r="P6">
+        <v>1.108338799470575</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.189312821730567</v>
+        <v>0.5095915674012872</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02098603315790015</v>
+        <v>0.03578992282592708</v>
       </c>
       <c r="E7">
-        <v>0.2802708462995298</v>
+        <v>0.1113227225676718</v>
       </c>
       <c r="F7">
-        <v>0.4511697332504312</v>
+        <v>0.6945637494013965</v>
       </c>
       <c r="G7">
-        <v>0.3780376531217655</v>
+        <v>0.6227454409841329</v>
       </c>
       <c r="H7">
-        <v>0.2300547309904317</v>
+        <v>0.01173880850461066</v>
       </c>
       <c r="I7">
-        <v>0.2474923659052961</v>
+        <v>0.02221720644122716</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4535000845407495</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5331325266106823</v>
       </c>
       <c r="L7">
-        <v>0.5191225578573295</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.312337993632212</v>
       </c>
       <c r="N7">
-        <v>1.368135092768625</v>
+        <v>0.193893285956392</v>
       </c>
       <c r="O7">
-        <v>1.235858686831392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1577292028713018</v>
+      </c>
+      <c r="P7">
+        <v>1.098082500625308</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.429370404074916</v>
+        <v>0.6059818159459098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02540642996067533</v>
+        <v>0.03900943813101421</v>
       </c>
       <c r="E8">
-        <v>0.2910783879986028</v>
+        <v>0.1221550795043704</v>
       </c>
       <c r="F8">
-        <v>0.5371476150905181</v>
+        <v>0.770409400909088</v>
       </c>
       <c r="G8">
-        <v>0.4556141286541475</v>
+        <v>0.6895601839555923</v>
       </c>
       <c r="H8">
-        <v>0.2606680467985569</v>
+        <v>0.008672943851592507</v>
       </c>
       <c r="I8">
-        <v>0.2240029780420461</v>
+        <v>0.01855087507741082</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4776797211028736</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5362153240562684</v>
       </c>
       <c r="L8">
-        <v>0.628279488820624</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.585003868577843</v>
       </c>
       <c r="N8">
-        <v>1.461497099455599</v>
+        <v>0.2321857142210604</v>
       </c>
       <c r="O8">
-        <v>1.464841510474429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1881493289875067</v>
+      </c>
+      <c r="P8">
+        <v>1.055166935456832</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.901504979768532</v>
+        <v>0.797862887759976</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03409488350187928</v>
+        <v>0.04512221537218153</v>
       </c>
       <c r="E9">
-        <v>0.3130914352701595</v>
+        <v>0.143680028420313</v>
       </c>
       <c r="F9">
-        <v>0.7118911641096304</v>
+        <v>0.9297300255118728</v>
       </c>
       <c r="G9">
-        <v>0.613134239325575</v>
+        <v>0.8308924007018135</v>
       </c>
       <c r="H9">
-        <v>0.324164006277897</v>
+        <v>0.004248486150228326</v>
       </c>
       <c r="I9">
-        <v>0.183759859369764</v>
+        <v>0.01252288698967341</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5310570762426607</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5461296587145696</v>
       </c>
       <c r="L9">
-        <v>0.8431694055089451</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.121786859841222</v>
       </c>
       <c r="N9">
-        <v>1.652255332220534</v>
+        <v>0.3069875559629054</v>
       </c>
       <c r="O9">
-        <v>1.932477696695486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2482007643134594</v>
+      </c>
+      <c r="P9">
+        <v>0.9773255172010025</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.249951750241678</v>
+        <v>0.922281512078797</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04050562275315173</v>
+        <v>0.05023719522529291</v>
       </c>
       <c r="E10">
-        <v>0.3297020980565009</v>
+        <v>0.161666799958363</v>
       </c>
       <c r="F10">
-        <v>0.8451048652019892</v>
+        <v>1.041508422726324</v>
       </c>
       <c r="G10">
-        <v>0.7331997332345139</v>
+        <v>0.9279449976124283</v>
       </c>
       <c r="H10">
-        <v>0.3734002675107035</v>
+        <v>0.002402246797716057</v>
       </c>
       <c r="I10">
-        <v>0.1580582680570721</v>
+        <v>0.009444582480139019</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5672430420505208</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5449376736685778</v>
       </c>
       <c r="L10">
-        <v>1.002020256477323</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.528278235714652</v>
       </c>
       <c r="N10">
-        <v>1.797566488663932</v>
+        <v>0.3497628928243728</v>
       </c>
       <c r="O10">
-        <v>2.290605645055876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2851431885466695</v>
+      </c>
+      <c r="P10">
+        <v>0.9177458368727933</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.408985280813624</v>
+        <v>0.8676676279513629</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04343154720767473</v>
+        <v>0.05824517538724905</v>
       </c>
       <c r="E11">
-        <v>0.3373405097101951</v>
+        <v>0.1929695493071435</v>
       </c>
       <c r="F11">
-        <v>0.9070138994361798</v>
+        <v>1.004595679158882</v>
       </c>
       <c r="G11">
-        <v>0.7890113044880422</v>
+        <v>0.8758046154594581</v>
       </c>
       <c r="H11">
-        <v>0.3964735434462909</v>
+        <v>0.0210516655514823</v>
       </c>
       <c r="I11">
-        <v>0.1472783210162714</v>
+        <v>0.009479166975959963</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5351553999512078</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4787952684302148</v>
       </c>
       <c r="L11">
-        <v>1.074608048332635</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.765627218585138</v>
       </c>
       <c r="N11">
-        <v>1.864908136466426</v>
+        <v>0.261753093590201</v>
       </c>
       <c r="O11">
-        <v>2.457453067046316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2442762466163764</v>
+      </c>
+      <c r="P11">
+        <v>0.8593720810438228</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.469297351933108</v>
+        <v>0.8028902729825518</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04454120953325713</v>
+        <v>0.06435818613389443</v>
       </c>
       <c r="E12">
-        <v>0.3402436469648435</v>
+        <v>0.2273367338507306</v>
       </c>
       <c r="F12">
-        <v>0.9306683948423995</v>
+        <v>0.9523299140659844</v>
       </c>
       <c r="G12">
-        <v>0.8103394112864208</v>
+        <v>0.8149129254431102</v>
       </c>
       <c r="H12">
-        <v>0.4053179664857822</v>
+        <v>0.05994044404344834</v>
       </c>
       <c r="I12">
-        <v>0.1433338158440174</v>
+        <v>0.009522946495579276</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5020819007681325</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4316768745520569</v>
       </c>
       <c r="L12">
-        <v>1.102151700036188</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.877920568501139</v>
       </c>
       <c r="N12">
-        <v>1.890596722981087</v>
+        <v>0.1886839607878414</v>
       </c>
       <c r="O12">
-        <v>2.521267420408947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2055424808349287</v>
+      </c>
+      <c r="P12">
+        <v>0.8352599795416626</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.45630384812597</v>
+        <v>0.7210858043896167</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04430214441753577</v>
+        <v>0.06943470943931374</v>
       </c>
       <c r="E13">
-        <v>0.339617950065886</v>
+        <v>0.2654784925386089</v>
       </c>
       <c r="F13">
-        <v>0.9255642199948539</v>
+        <v>0.882114976255238</v>
       </c>
       <c r="G13">
-        <v>0.8057370515269611</v>
+        <v>0.7404234331231123</v>
       </c>
       <c r="H13">
-        <v>0.4034082335877542</v>
+        <v>0.1160657919182881</v>
       </c>
       <c r="I13">
-        <v>0.1441771075352998</v>
+        <v>0.01003117731269132</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4645917490480542</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3932765671513927</v>
       </c>
       <c r="L13">
-        <v>1.09621702377973</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.902563266181801</v>
       </c>
       <c r="N13">
-        <v>1.885055715537078</v>
+        <v>0.1245084222037889</v>
       </c>
       <c r="O13">
-        <v>2.507494588624667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1658153750684619</v>
+      </c>
+      <c r="P13">
+        <v>0.8331822048220321</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.413945311497912</v>
+        <v>0.6558956365692268</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04352280442562773</v>
+        <v>0.0725824873555112</v>
       </c>
       <c r="E14">
-        <v>0.3375791461198503</v>
+        <v>0.295244081525837</v>
       </c>
       <c r="F14">
-        <v>0.9089556074503236</v>
+        <v>0.8247942416130201</v>
       </c>
       <c r="G14">
-        <v>0.7907619721205066</v>
+        <v>0.6821741921859115</v>
       </c>
       <c r="H14">
-        <v>0.3971989740232686</v>
+        <v>0.1657458009180601</v>
       </c>
       <c r="I14">
-        <v>0.1469510075285898</v>
+        <v>0.0107062879557418</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4363301996553588</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3708130035470223</v>
       </c>
       <c r="L14">
-        <v>1.076872897863751</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.880805960367582</v>
       </c>
       <c r="N14">
-        <v>1.867017731533991</v>
+        <v>0.0856958450869314</v>
       </c>
       <c r="O14">
-        <v>2.462690026530197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1381310981117316</v>
+      </c>
+      <c r="P14">
+        <v>0.8427088042189688</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.388011584970968</v>
+        <v>0.635100502953577</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04304566369587093</v>
+        <v>0.07309254268709253</v>
       </c>
       <c r="E15">
-        <v>0.3363316701380654</v>
+        <v>0.3019139636158883</v>
       </c>
       <c r="F15">
-        <v>0.8988105139867741</v>
+        <v>0.8065022254905472</v>
       </c>
       <c r="G15">
-        <v>0.7816151763896215</v>
+        <v>0.6644467216142687</v>
       </c>
       <c r="H15">
-        <v>0.3934098747527628</v>
+        <v>0.1784097020627229</v>
       </c>
       <c r="I15">
-        <v>0.1486682230838623</v>
+        <v>0.01112565340643545</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4281921667668627</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3661207287338115</v>
       </c>
       <c r="L15">
-        <v>1.065031675880192</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.857484114644535</v>
       </c>
       <c r="N15">
-        <v>1.855993694173463</v>
+        <v>0.07687759488937473</v>
       </c>
       <c r="O15">
-        <v>2.435330433091764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1307629009959932</v>
+      </c>
+      <c r="P15">
+        <v>0.8482679599917518</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.239570261908511</v>
+        <v>0.5985871801194662</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04031462527708385</v>
+        <v>0.06970063313864472</v>
       </c>
       <c r="E16">
-        <v>0.3292044623253219</v>
+        <v>0.2849890117051075</v>
       </c>
       <c r="F16">
-        <v>0.8410872092273678</v>
+        <v>0.771554907531069</v>
       </c>
       <c r="G16">
-        <v>0.7295781625215767</v>
+        <v>0.636796233947905</v>
       </c>
       <c r="H16">
-        <v>0.3719068006617476</v>
+        <v>0.1664938686521253</v>
       </c>
       <c r="I16">
-        <v>0.1587816602422176</v>
+        <v>0.01253606721133682</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4195323743278436</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3735218749244318</v>
       </c>
       <c r="L16">
-        <v>0.9972838148461847</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.675909876513884</v>
       </c>
       <c r="N16">
-        <v>1.793191291041438</v>
+        <v>0.07373752762013908</v>
       </c>
       <c r="O16">
-        <v>2.27978656233455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.123933700147429</v>
+      </c>
+      <c r="P16">
+        <v>0.8708813300932654</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.14865018391248</v>
+        <v>0.6044431729911821</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03864189363891768</v>
+        <v>0.06542766971857361</v>
       </c>
       <c r="E17">
-        <v>0.3248523533687546</v>
+        <v>0.2554447613799198</v>
       </c>
       <c r="F17">
-        <v>0.8060267988009855</v>
+        <v>0.7752555234273188</v>
       </c>
       <c r="G17">
-        <v>0.6979758424263451</v>
+        <v>0.6464648877346377</v>
       </c>
       <c r="H17">
-        <v>0.3588952180129752</v>
+        <v>0.1291790796522463</v>
       </c>
       <c r="I17">
-        <v>0.1652239978773711</v>
+        <v>0.01329071533466042</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4279207319376184</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3905718834725764</v>
       </c>
       <c r="L17">
-        <v>0.9558125864500653</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.548975725305297</v>
       </c>
       <c r="N17">
-        <v>1.754988006020824</v>
+        <v>0.09065676455869465</v>
       </c>
       <c r="O17">
-        <v>2.185419211060037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1328984633937793</v>
+      </c>
+      <c r="P17">
+        <v>0.8828127454733625</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.096403704072827</v>
+        <v>0.6513502338371211</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03768067214497961</v>
+        <v>0.06004829040156778</v>
       </c>
       <c r="E18">
-        <v>0.3223569370566324</v>
+        <v>0.2166702779258003</v>
       </c>
       <c r="F18">
-        <v>0.7859827875327596</v>
+        <v>0.8139557153473191</v>
       </c>
       <c r="G18">
-        <v>0.6799099315976633</v>
+        <v>0.6912117620588276</v>
       </c>
       <c r="H18">
-        <v>0.3514742409698925</v>
+        <v>0.0764000356459249</v>
       </c>
       <c r="I18">
-        <v>0.169014878347161</v>
+        <v>0.01314067405950414</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4528029047292677</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4217109167167123</v>
       </c>
       <c r="L18">
-        <v>0.9319894900701229</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.45255661184504</v>
       </c>
       <c r="N18">
-        <v>1.733130483264233</v>
+        <v>0.1322784452671542</v>
       </c>
       <c r="O18">
-        <v>2.131507520930057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1583543020211842</v>
+      </c>
+      <c r="P18">
+        <v>0.892169334378174</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.078721829138829</v>
+        <v>0.7237702883799386</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03735536327549482</v>
+        <v>0.05475096320752471</v>
       </c>
       <c r="E19">
-        <v>0.321513407677827</v>
+        <v>0.1823219546410257</v>
       </c>
       <c r="F19">
-        <v>0.7792164876143488</v>
+        <v>0.875692275851236</v>
       </c>
       <c r="G19">
-        <v>0.6738115307604886</v>
+        <v>0.7590529018006862</v>
       </c>
       <c r="H19">
-        <v>0.348972144192615</v>
+        <v>0.03068722789518574</v>
       </c>
       <c r="I19">
-        <v>0.1703128829777043</v>
+        <v>0.0128490170827753</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4880348668795449</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4639178929393601</v>
       </c>
       <c r="L19">
-        <v>0.9239282867203542</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.392765166206573</v>
       </c>
       <c r="N19">
-        <v>1.72574954105653</v>
+        <v>0.2008993573021058</v>
       </c>
       <c r="O19">
-        <v>2.1133148221559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.1972925357251363</v>
+      </c>
+      <c r="P19">
+        <v>0.9061727683625596</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.158323677953376</v>
+        <v>0.877388474300858</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03881986466939935</v>
+        <v>0.04922663478056677</v>
       </c>
       <c r="E20">
-        <v>0.3253148438607951</v>
+        <v>0.1573193055216162</v>
       </c>
       <c r="F20">
-        <v>0.8097462738646755</v>
+        <v>1.005762044598924</v>
       </c>
       <c r="G20">
-        <v>0.7013283310734977</v>
+        <v>0.8954891913346898</v>
       </c>
       <c r="H20">
-        <v>0.3602737392236293</v>
+        <v>0.002822420214909194</v>
       </c>
       <c r="I20">
-        <v>0.1645293134707915</v>
+        <v>0.01112434568916676</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5541721017893195</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5389603069054232</v>
       </c>
       <c r="L20">
-        <v>0.9602240929285983</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.428467277545593</v>
       </c>
       <c r="N20">
-        <v>1.759042738037181</v>
+        <v>0.3404468095125708</v>
       </c>
       <c r="O20">
-        <v>2.195426433763799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2738884349527346</v>
+      </c>
+      <c r="P20">
+        <v>0.9297018966590631</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.426384491847443</v>
+        <v>0.9934021747561417</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04375166751137982</v>
+        <v>0.05219346330584074</v>
       </c>
       <c r="E21">
-        <v>0.3381777129550301</v>
+        <v>0.1689276039825156</v>
       </c>
       <c r="F21">
-        <v>0.9138280481938779</v>
+        <v>1.110289677227414</v>
       </c>
       <c r="G21">
-        <v>0.7951550827717142</v>
+        <v>0.9902685854700479</v>
       </c>
       <c r="H21">
-        <v>0.3990197953114318</v>
+        <v>0.001331294702705765</v>
       </c>
       <c r="I21">
-        <v>0.1461324572398439</v>
+        <v>0.008770371951018596</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5922932987809304</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5514363017165884</v>
       </c>
       <c r="L21">
-        <v>1.082553132092841</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.733179588209168</v>
       </c>
       <c r="N21">
-        <v>1.872310749043095</v>
+        <v>0.394003934669044</v>
       </c>
       <c r="O21">
-        <v>2.475832477035965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3130105754724539</v>
+      </c>
+      <c r="P21">
+        <v>0.8928582368951012</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.602106940127612</v>
+        <v>1.067580026181645</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04698481686276779</v>
+        <v>0.05430178723413093</v>
       </c>
       <c r="E22">
-        <v>0.3466457942668697</v>
+        <v>0.1773719072155302</v>
       </c>
       <c r="F22">
-        <v>0.9830923689968927</v>
+        <v>1.17722813390094</v>
       </c>
       <c r="G22">
-        <v>0.8576153251233904</v>
+        <v>1.050473921723636</v>
       </c>
       <c r="H22">
-        <v>0.4249718316099518</v>
+        <v>0.0007341707678996112</v>
       </c>
       <c r="I22">
-        <v>0.1349144996219183</v>
+        <v>0.007144262652694522</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6163898019456298</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5581962251334431</v>
       </c>
       <c r="L22">
-        <v>1.162834865506539</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.93372667757032</v>
       </c>
       <c r="N22">
-        <v>1.947437296582308</v>
+        <v>0.4212756810533449</v>
       </c>
       <c r="O22">
-        <v>2.66281754670851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3356515744409023</v>
+      </c>
+      <c r="P22">
+        <v>0.8683415614261634</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.508267146113042</v>
+        <v>1.032567714174291</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.045258214294293</v>
+        <v>0.0530580738337747</v>
       </c>
       <c r="E23">
-        <v>0.3421209852020581</v>
+        <v>0.1727092198645845</v>
       </c>
       <c r="F23">
-        <v>0.9460032733984605</v>
+        <v>1.143470427727109</v>
       </c>
       <c r="G23">
-        <v>0.8241672467705996</v>
+        <v>1.020531695763779</v>
       </c>
       <c r="H23">
-        <v>0.4110596903633734</v>
+        <v>0.001025429313836534</v>
       </c>
       <c r="I23">
-        <v>0.1408258002212746</v>
+        <v>0.007637575163920829</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6046371440503151</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5568378885090439</v>
       </c>
       <c r="L23">
-        <v>1.119953265678532</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.823797873302709</v>
       </c>
       <c r="N23">
-        <v>1.90723691307727</v>
+        <v>0.4057196126781548</v>
       </c>
       <c r="O23">
-        <v>2.562655896610437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3240608197680004</v>
+      </c>
+      <c r="P23">
+        <v>0.8825865107456465</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.153950215477721</v>
+        <v>0.8920262366636109</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03873940257349773</v>
+        <v>0.04853859848158493</v>
       </c>
       <c r="E24">
-        <v>0.325105731047536</v>
+        <v>0.1556849027396066</v>
       </c>
       <c r="F24">
-        <v>0.8080643498867488</v>
+        <v>1.015203274206826</v>
       </c>
       <c r="G24">
-        <v>0.6998123527558278</v>
+        <v>0.9062153348195778</v>
       </c>
       <c r="H24">
-        <v>0.3596503250268057</v>
+        <v>0.002617671775874353</v>
       </c>
       <c r="I24">
-        <v>0.1648431094987561</v>
+        <v>0.01050617841504309</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5597555061936959</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.548338331392543</v>
       </c>
       <c r="L24">
-        <v>0.9582295915438124</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.415185681153133</v>
       </c>
       <c r="N24">
-        <v>1.757209264075811</v>
+        <v>0.3488021975339564</v>
       </c>
       <c r="O24">
-        <v>2.190901110156972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.279387394130957</v>
+      </c>
+      <c r="P24">
+        <v>0.9358459622941702</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.773560012397326</v>
+        <v>0.7394888057646369</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03174077081332172</v>
+        <v>0.04364517637893428</v>
       </c>
       <c r="E25">
-        <v>0.3070549567302372</v>
+        <v>0.1379655464588971</v>
       </c>
       <c r="F25">
-        <v>0.6638529279161816</v>
+        <v>0.8824997851015581</v>
       </c>
       <c r="G25">
-        <v>0.5698393468182417</v>
+        <v>0.7882658234229609</v>
       </c>
       <c r="H25">
-        <v>0.3065687354448414</v>
+        <v>0.005278069606963309</v>
       </c>
       <c r="I25">
-        <v>0.1939917850214208</v>
+        <v>0.01450178526324564</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5143082099455825</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5398928238558334</v>
       </c>
       <c r="L25">
-        <v>0.7849008554636612</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.979850783065473</v>
       </c>
       <c r="N25">
-        <v>1.59978059126739</v>
+        <v>0.288085226390379</v>
       </c>
       <c r="O25">
-        <v>1.803658596377147</v>
+        <v>0.2312389829732382</v>
+      </c>
+      <c r="P25">
+        <v>0.9958647252971939</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6371770544873243</v>
+        <v>0.5475147022928866</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03974632806224676</v>
+        <v>0.04125582058698996</v>
       </c>
       <c r="E2">
-        <v>0.1249761534663882</v>
+        <v>0.113680505156541</v>
       </c>
       <c r="F2">
-        <v>0.7939417635341641</v>
+        <v>0.7575092077892549</v>
       </c>
       <c r="G2">
-        <v>0.7108655085070126</v>
+        <v>0.6492446261774916</v>
       </c>
       <c r="H2">
-        <v>0.007929098668509382</v>
+        <v>0.005951591440498838</v>
       </c>
       <c r="I2">
-        <v>0.01725803433178008</v>
+        <v>0.01201142616244333</v>
       </c>
       <c r="J2">
-        <v>0.4859186434344736</v>
+        <v>0.5059641184590333</v>
       </c>
       <c r="K2">
-        <v>0.5398437253852357</v>
+        <v>0.4610410983849391</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1945037062462553</v>
       </c>
       <c r="M2">
-        <v>1.656029256101448</v>
+        <v>0.1527524328437018</v>
       </c>
       <c r="N2">
-        <v>0.2414887570957518</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1969444886425933</v>
+        <v>1.68742182286141</v>
       </c>
       <c r="P2">
-        <v>1.045515556784514</v>
+        <v>0.2634001200290186</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1886353890243093</v>
+      </c>
+      <c r="R2">
+        <v>0.9803159383809472</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5609256684886645</v>
+        <v>0.4846114947827118</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03724648478791792</v>
+        <v>0.03821499945120976</v>
       </c>
       <c r="E3">
-        <v>0.1164594292419512</v>
+        <v>0.1051857591492471</v>
       </c>
       <c r="F3">
-        <v>0.7330854940170184</v>
+        <v>0.7022511001540792</v>
       </c>
       <c r="G3">
-        <v>0.6571305243382852</v>
+        <v>0.6025556238423206</v>
       </c>
       <c r="H3">
-        <v>0.01015445662081406</v>
+        <v>0.007740407818080886</v>
       </c>
       <c r="I3">
-        <v>0.01999745011977572</v>
+        <v>0.01394602018497881</v>
       </c>
       <c r="J3">
-        <v>0.4662028616314018</v>
+        <v>0.4856600882185376</v>
       </c>
       <c r="K3">
-        <v>0.5368981820741574</v>
+        <v>0.4623614886824257</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1988156471121769</v>
       </c>
       <c r="M3">
-        <v>1.441755469748728</v>
+        <v>0.151208769379453</v>
       </c>
       <c r="N3">
-        <v>0.2114825008593897</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1729793411202962</v>
+        <v>1.465842597503212</v>
       </c>
       <c r="P3">
-        <v>1.078496077096467</v>
+        <v>0.2305480579217516</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1661313457083722</v>
+      </c>
+      <c r="R3">
+        <v>1.013030121338525</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5136184151848084</v>
+        <v>0.4453380501615243</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03570638828798423</v>
+        <v>0.03634945626365393</v>
       </c>
       <c r="E4">
-        <v>0.1112622513185393</v>
+        <v>0.1000303729518199</v>
       </c>
       <c r="F4">
-        <v>0.6965579037588228</v>
+        <v>0.6690109051424287</v>
       </c>
       <c r="G4">
-        <v>0.6249016185200844</v>
+        <v>0.5747056324455428</v>
       </c>
       <c r="H4">
-        <v>0.01171328326994774</v>
+        <v>0.009001083398587642</v>
       </c>
       <c r="I4">
-        <v>0.02188059191337599</v>
+        <v>0.01529428796346055</v>
       </c>
       <c r="J4">
-        <v>0.4545807963045547</v>
+        <v>0.4733585713088502</v>
       </c>
       <c r="K4">
-        <v>0.5351316027474162</v>
+        <v>0.463149989662174</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2014961873245724</v>
       </c>
       <c r="M4">
-        <v>1.310797970111878</v>
+        <v>0.1507173947350182</v>
       </c>
       <c r="N4">
-        <v>0.193186643469005</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1582177546157588</v>
+        <v>1.330445185197078</v>
       </c>
       <c r="P4">
-        <v>1.09925394755107</v>
+        <v>0.2105562975445281</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1522419980269838</v>
+      </c>
+      <c r="R4">
+        <v>1.033655416843856</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4930993366091201</v>
+        <v>0.4281734385196927</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03510444905518284</v>
+        <v>0.03561639772210867</v>
       </c>
       <c r="E5">
-        <v>0.1091739659337048</v>
+        <v>0.09797881375087858</v>
       </c>
       <c r="F5">
-        <v>0.6813330655780021</v>
+        <v>0.6551314512050439</v>
       </c>
       <c r="G5">
-        <v>0.6113550837037138</v>
+        <v>0.5630087242975748</v>
       </c>
       <c r="H5">
-        <v>0.01240038451638309</v>
+        <v>0.009558442112774179</v>
       </c>
       <c r="I5">
-        <v>0.02279373984068389</v>
+        <v>0.01598873345314455</v>
       </c>
       <c r="J5">
-        <v>0.4496558619318165</v>
+        <v>0.4680970694241751</v>
       </c>
       <c r="K5">
-        <v>0.5338266857465506</v>
+        <v>0.4629616271367532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2023482111379877</v>
       </c>
       <c r="M5">
-        <v>1.258227932564893</v>
+        <v>0.1505030714679592</v>
       </c>
       <c r="N5">
-        <v>0.1859997407524219</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.152068773503057</v>
+        <v>1.276051347045666</v>
       </c>
       <c r="P5">
-        <v>1.107446490489751</v>
+        <v>0.2026832921599464</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1464514426046684</v>
+      </c>
+      <c r="R5">
+        <v>1.041892128442934</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4883162118558886</v>
+        <v>0.4240934623151418</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03503773503078023</v>
+        <v>0.0355278304297606</v>
       </c>
       <c r="E6">
-        <v>0.1088593397620308</v>
+        <v>0.09768599415749879</v>
       </c>
       <c r="F6">
-        <v>0.678161761216117</v>
+        <v>0.6522326148248467</v>
       </c>
       <c r="G6">
-        <v>0.6083937676557269</v>
+        <v>0.5604207167549191</v>
       </c>
       <c r="H6">
-        <v>0.01252361786321789</v>
+        <v>0.009658558522773003</v>
       </c>
       <c r="I6">
-        <v>0.02307348635305395</v>
+        <v>0.01624435575138428</v>
       </c>
       <c r="J6">
-        <v>0.4484732503522366</v>
+        <v>0.4668747813851581</v>
       </c>
       <c r="K6">
-        <v>0.5328842717695181</v>
+        <v>0.4623156220447235</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2021878434122257</v>
       </c>
       <c r="M6">
-        <v>1.250327256783436</v>
+        <v>0.1503162485883394</v>
       </c>
       <c r="N6">
-        <v>0.1851017205877952</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1508988407934702</v>
+        <v>1.267813734089344</v>
       </c>
       <c r="P6">
-        <v>1.108338799470575</v>
+        <v>0.2016624088147836</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1453517308708108</v>
+      </c>
+      <c r="R6">
+        <v>1.042903231125666</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5095915674012872</v>
+        <v>0.44197622693558</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03578992282592708</v>
+        <v>0.03653748904252652</v>
       </c>
       <c r="E7">
-        <v>0.1113227225676718</v>
+        <v>0.1000273498668491</v>
       </c>
       <c r="F7">
-        <v>0.6945637494013965</v>
+        <v>0.665459980105652</v>
       </c>
       <c r="G7">
-        <v>0.6227454409841329</v>
+        <v>0.5760476498974754</v>
       </c>
       <c r="H7">
-        <v>0.01173880850461066</v>
+        <v>0.009028065630650353</v>
       </c>
       <c r="I7">
-        <v>0.02221720644122716</v>
+        <v>0.015667706040837</v>
       </c>
       <c r="J7">
-        <v>0.4535000845407495</v>
+        <v>0.4659166837355855</v>
       </c>
       <c r="K7">
-        <v>0.5331325266106823</v>
+        <v>0.4610801837672618</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2005161036483756</v>
       </c>
       <c r="M7">
-        <v>1.312337993632212</v>
+        <v>0.1501558729876233</v>
       </c>
       <c r="N7">
-        <v>0.193893285956392</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1577292028713018</v>
+        <v>1.329310997863473</v>
       </c>
       <c r="P7">
-        <v>1.098082500625308</v>
+        <v>0.2109640217977926</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1517418330050191</v>
+      </c>
+      <c r="R7">
+        <v>1.032449818732561</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6059818159459098</v>
+        <v>0.5222224389307826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03900943813101421</v>
+        <v>0.04069508899888419</v>
       </c>
       <c r="E8">
-        <v>0.1221550795043704</v>
+        <v>0.1105585453459632</v>
       </c>
       <c r="F8">
-        <v>0.770409400909088</v>
+        <v>0.730420737014768</v>
       </c>
       <c r="G8">
-        <v>0.6895601839555923</v>
+        <v>0.641640370221026</v>
       </c>
       <c r="H8">
-        <v>0.008672943851592507</v>
+        <v>0.00656433723499239</v>
       </c>
       <c r="I8">
-        <v>0.01855087507741082</v>
+        <v>0.01309717151731338</v>
       </c>
       <c r="J8">
-        <v>0.4776797211028736</v>
+        <v>0.4765681835038293</v>
       </c>
       <c r="K8">
-        <v>0.5362153240562684</v>
+        <v>0.4580523114601682</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1944621302502263</v>
       </c>
       <c r="M8">
-        <v>1.585003868577843</v>
+        <v>0.1510611646778148</v>
       </c>
       <c r="N8">
-        <v>0.2321857142210604</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1881493289875067</v>
+        <v>1.605154462463418</v>
       </c>
       <c r="P8">
-        <v>1.055166935456832</v>
+        <v>0.2521872177052558</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1802337878033846</v>
+      </c>
+      <c r="R8">
+        <v>0.9892885698999212</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.797862887759976</v>
+        <v>0.6795992640957422</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04512221537218153</v>
+        <v>0.04831258743016065</v>
       </c>
       <c r="E9">
-        <v>0.143680028420313</v>
+        <v>0.1320050628533593</v>
       </c>
       <c r="F9">
-        <v>0.9297300255118728</v>
+        <v>0.8730794394817565</v>
       </c>
       <c r="G9">
-        <v>0.8308924007018135</v>
+        <v>0.7687008734815919</v>
       </c>
       <c r="H9">
-        <v>0.004248486150228326</v>
+        <v>0.003050268607310835</v>
       </c>
       <c r="I9">
-        <v>0.01252288698967341</v>
+        <v>0.008799898643222726</v>
       </c>
       <c r="J9">
-        <v>0.5310570762426607</v>
+        <v>0.523468930785441</v>
       </c>
       <c r="K9">
-        <v>0.5461296587145696</v>
+        <v>0.4563011080304165</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1848055285441141</v>
       </c>
       <c r="M9">
-        <v>2.121786859841222</v>
+        <v>0.1577601690469521</v>
       </c>
       <c r="N9">
-        <v>0.3069875559629054</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2482007643134594</v>
+        <v>2.157823998260085</v>
       </c>
       <c r="P9">
-        <v>0.9773255172010025</v>
+        <v>0.3341424482107413</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2364092451010649</v>
+      </c>
+      <c r="R9">
+        <v>0.911852334449037</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.922281512078797</v>
+        <v>0.7823663531695502</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05023719522529291</v>
+        <v>0.0552494863700943</v>
       </c>
       <c r="E10">
-        <v>0.161666799958363</v>
+        <v>0.1498958847275063</v>
       </c>
       <c r="F10">
-        <v>1.041508422726324</v>
+        <v>0.9630850178530039</v>
       </c>
       <c r="G10">
-        <v>0.9279449976124283</v>
+        <v>0.8771674526987567</v>
       </c>
       <c r="H10">
-        <v>0.002402246797716057</v>
+        <v>0.001687537805050265</v>
       </c>
       <c r="I10">
-        <v>0.009444582480139019</v>
+        <v>0.006778213837423941</v>
       </c>
       <c r="J10">
-        <v>0.5672430420505208</v>
+        <v>0.5180325177531415</v>
       </c>
       <c r="K10">
-        <v>0.5449376736685778</v>
+        <v>0.4465062395451405</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1749230331979739</v>
       </c>
       <c r="M10">
-        <v>2.528278235714652</v>
+        <v>0.1614991787909581</v>
       </c>
       <c r="N10">
-        <v>0.3497628928243728</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2851431885466695</v>
+        <v>2.55897379301112</v>
       </c>
       <c r="P10">
-        <v>0.9177458368727933</v>
+        <v>0.3797414086652537</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2705016821930819</v>
+      </c>
+      <c r="R10">
+        <v>0.8538495120949516</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8676676279513629</v>
+        <v>0.7465160662326298</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05824517538724905</v>
+        <v>0.06539365361776817</v>
       </c>
       <c r="E11">
-        <v>0.1929695493071435</v>
+        <v>0.1827091727282308</v>
       </c>
       <c r="F11">
-        <v>1.004595679158882</v>
+        <v>0.9118502074017982</v>
       </c>
       <c r="G11">
-        <v>0.8758046154594581</v>
+        <v>0.8765559349466656</v>
       </c>
       <c r="H11">
-        <v>0.0210516655514823</v>
+        <v>0.0203702487991535</v>
       </c>
       <c r="I11">
-        <v>0.009479166975959963</v>
+        <v>0.007128910559940138</v>
       </c>
       <c r="J11">
-        <v>0.5351553999512078</v>
+        <v>0.4219536842306866</v>
       </c>
       <c r="K11">
-        <v>0.4787952684302148</v>
+        <v>0.3924615432594436</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1539145131779822</v>
       </c>
       <c r="M11">
-        <v>2.765627218585138</v>
+        <v>0.1429671216619646</v>
       </c>
       <c r="N11">
-        <v>0.261753093590201</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2442762466163764</v>
+        <v>2.754086589123091</v>
       </c>
       <c r="P11">
-        <v>0.8593720810438228</v>
+        <v>0.2821250402630255</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.231351235391358</v>
+      </c>
+      <c r="R11">
+        <v>0.8145013504576504</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8028902729825518</v>
+        <v>0.6999305357246044</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06435818613389443</v>
+        <v>0.07253363872694507</v>
       </c>
       <c r="E12">
-        <v>0.2273367338507306</v>
+        <v>0.2169038692021275</v>
       </c>
       <c r="F12">
-        <v>0.9523299140659844</v>
+        <v>0.8585019926273958</v>
       </c>
       <c r="G12">
-        <v>0.8149129254431102</v>
+        <v>0.842531602178056</v>
       </c>
       <c r="H12">
-        <v>0.05994044404344834</v>
+        <v>0.05923447708321561</v>
       </c>
       <c r="I12">
-        <v>0.009522946495579276</v>
+        <v>0.007174886868098973</v>
       </c>
       <c r="J12">
-        <v>0.5020819007681325</v>
+        <v>0.3688313523951052</v>
       </c>
       <c r="K12">
-        <v>0.4316768745520569</v>
+        <v>0.3571801370930459</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1416796793886856</v>
       </c>
       <c r="M12">
-        <v>2.877920568501139</v>
+        <v>0.1291668512666639</v>
       </c>
       <c r="N12">
-        <v>0.1886839607878414</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2055424808349287</v>
+        <v>2.840565487031824</v>
       </c>
       <c r="P12">
-        <v>0.8352599795416626</v>
+        <v>0.2025470633718669</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.1946529235766263</v>
+      </c>
+      <c r="R12">
+        <v>0.8053090268411331</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7210858043896167</v>
+        <v>0.6370415822241853</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06943470943931374</v>
+        <v>0.07725250068367728</v>
       </c>
       <c r="E13">
-        <v>0.2654784925386089</v>
+        <v>0.2550769594106796</v>
       </c>
       <c r="F13">
-        <v>0.882114976255238</v>
+        <v>0.801063566409681</v>
       </c>
       <c r="G13">
-        <v>0.7404234331231123</v>
+        <v>0.7697799447003462</v>
       </c>
       <c r="H13">
-        <v>0.1160657919182881</v>
+        <v>0.1152734037168273</v>
       </c>
       <c r="I13">
-        <v>0.01003117731269132</v>
+        <v>0.007501628475901079</v>
       </c>
       <c r="J13">
-        <v>0.4645917490480542</v>
+        <v>0.3496050649328311</v>
       </c>
       <c r="K13">
-        <v>0.3932765671513927</v>
+        <v>0.3314445220818403</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1336359538468361</v>
       </c>
       <c r="M13">
-        <v>2.902563266181801</v>
+        <v>0.1177711205937566</v>
       </c>
       <c r="N13">
-        <v>0.1245084222037889</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1658153750684619</v>
+        <v>2.858491374947249</v>
       </c>
       <c r="P13">
-        <v>0.8331822048220321</v>
+        <v>0.1339163144516959</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1573642653171028</v>
+      </c>
+      <c r="R13">
+        <v>0.8139882330290753</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6558956365692268</v>
+        <v>0.5852981696608026</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0725824873555112</v>
+        <v>0.07944865031216608</v>
       </c>
       <c r="E14">
-        <v>0.295244081525837</v>
+        <v>0.2852052132709773</v>
       </c>
       <c r="F14">
-        <v>0.8247942416130201</v>
+        <v>0.7582348573571949</v>
       </c>
       <c r="G14">
-        <v>0.6821741921859115</v>
+        <v>0.7027962579989122</v>
       </c>
       <c r="H14">
-        <v>0.1657458009180601</v>
+        <v>0.1648621937133044</v>
       </c>
       <c r="I14">
-        <v>0.0107062879557418</v>
+        <v>0.007976157915283721</v>
       </c>
       <c r="J14">
-        <v>0.4363301996553588</v>
+        <v>0.3489293205689137</v>
       </c>
       <c r="K14">
-        <v>0.3708130035470223</v>
+        <v>0.317552659275302</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1295693467246029</v>
       </c>
       <c r="M14">
-        <v>2.880805960367582</v>
+        <v>0.1110752482318329</v>
       </c>
       <c r="N14">
-        <v>0.0856958450869314</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1381310981117316</v>
+        <v>2.840517038041497</v>
       </c>
       <c r="P14">
-        <v>0.8427088042189688</v>
+        <v>0.09276194360667489</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1314705339653806</v>
+      </c>
+      <c r="R14">
+        <v>0.8278404611778214</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.635100502953577</v>
+        <v>0.568155130568698</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07309254268709253</v>
+        <v>0.07943654922917176</v>
       </c>
       <c r="E15">
-        <v>0.3019139636158883</v>
+        <v>0.2923152732623464</v>
       </c>
       <c r="F15">
-        <v>0.8065022254905472</v>
+        <v>0.7459138033485857</v>
       </c>
       <c r="G15">
-        <v>0.6644467216142687</v>
+        <v>0.6789609350722401</v>
       </c>
       <c r="H15">
-        <v>0.1784097020627229</v>
+        <v>0.1774821654612708</v>
       </c>
       <c r="I15">
-        <v>0.01112565340643545</v>
+        <v>0.008321716065220919</v>
       </c>
       <c r="J15">
-        <v>0.4281921667668627</v>
+        <v>0.3540089873921488</v>
       </c>
       <c r="K15">
-        <v>0.3661207287338115</v>
+        <v>0.3151178611707692</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1289359755148096</v>
       </c>
       <c r="M15">
-        <v>2.857484114644535</v>
+        <v>0.1096886453353587</v>
       </c>
       <c r="N15">
-        <v>0.07687759488937473</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1307629009959932</v>
+        <v>2.821752255380147</v>
       </c>
       <c r="P15">
-        <v>0.8482679599917518</v>
+        <v>0.08353753806598263</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1246205643899572</v>
+      </c>
+      <c r="R15">
+        <v>0.8334684509600017</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5985871801194662</v>
+        <v>0.5348445833861035</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06970063313864472</v>
+        <v>0.07375944580989113</v>
       </c>
       <c r="E16">
-        <v>0.2849890117051075</v>
+        <v>0.2785953526132872</v>
       </c>
       <c r="F16">
-        <v>0.771554907531069</v>
+        <v>0.7312878074358053</v>
       </c>
       <c r="G16">
-        <v>0.636796233947905</v>
+        <v>0.6186194316242108</v>
       </c>
       <c r="H16">
-        <v>0.1664938686521253</v>
+        <v>0.1653364330650362</v>
       </c>
       <c r="I16">
-        <v>0.01253606721133682</v>
+        <v>0.009311950928720059</v>
       </c>
       <c r="J16">
-        <v>0.4195323743278436</v>
+        <v>0.4017651474808162</v>
       </c>
       <c r="K16">
-        <v>0.3735218749244318</v>
+        <v>0.3243973480334272</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1325854548385799</v>
       </c>
       <c r="M16">
-        <v>2.675909876513884</v>
+        <v>0.1120608011866882</v>
       </c>
       <c r="N16">
-        <v>0.07373752762013908</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.123933700147429</v>
+        <v>2.670200777643856</v>
       </c>
       <c r="P16">
-        <v>0.8708813300932654</v>
+        <v>0.08146776784740695</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1186248198685718</v>
+      </c>
+      <c r="R16">
+        <v>0.8492260710826613</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6044431729911821</v>
+        <v>0.5365176064955506</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06542766971857361</v>
+        <v>0.06861975575970547</v>
       </c>
       <c r="E17">
-        <v>0.2554447613799198</v>
+        <v>0.2503942576190319</v>
       </c>
       <c r="F17">
-        <v>0.7752555234273188</v>
+        <v>0.7409154696577502</v>
       </c>
       <c r="G17">
-        <v>0.6464648877346377</v>
+        <v>0.6119471954658451</v>
       </c>
       <c r="H17">
-        <v>0.1291790796522463</v>
+        <v>0.1278931020764702</v>
       </c>
       <c r="I17">
-        <v>0.01329071533466042</v>
+        <v>0.009855554707490555</v>
       </c>
       <c r="J17">
-        <v>0.4279207319376184</v>
+        <v>0.4337945502284271</v>
       </c>
       <c r="K17">
-        <v>0.3905718834725764</v>
+        <v>0.338785401720882</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.137983724922611</v>
       </c>
       <c r="M17">
-        <v>2.548975725305297</v>
+        <v>0.1170152379749219</v>
       </c>
       <c r="N17">
-        <v>0.09065676455869465</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1328984633937793</v>
+        <v>2.559303149689072</v>
       </c>
       <c r="P17">
-        <v>0.8828127454733625</v>
+        <v>0.1004146907423404</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1273221809786271</v>
+      </c>
+      <c r="R17">
+        <v>0.8556176824011459</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6513502338371211</v>
+        <v>0.5713025293611622</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06004829040156778</v>
+        <v>0.06307412730034656</v>
       </c>
       <c r="E18">
-        <v>0.2166702779258003</v>
+        <v>0.2116864636911586</v>
       </c>
       <c r="F18">
-        <v>0.8139557153473191</v>
+        <v>0.7773137008010309</v>
       </c>
       <c r="G18">
-        <v>0.6912117620588276</v>
+        <v>0.6444178372471328</v>
       </c>
       <c r="H18">
-        <v>0.0764000356459249</v>
+        <v>0.07509252622971019</v>
       </c>
       <c r="I18">
-        <v>0.01314067405950414</v>
+        <v>0.009626327206360585</v>
       </c>
       <c r="J18">
-        <v>0.4528029047292677</v>
+        <v>0.4663497976901283</v>
       </c>
       <c r="K18">
-        <v>0.4217109167167123</v>
+        <v>0.3626132218932998</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1468873395291794</v>
       </c>
       <c r="M18">
-        <v>2.45255661184504</v>
+        <v>0.1257900258010984</v>
       </c>
       <c r="N18">
-        <v>0.1322784452671542</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1583543020211842</v>
+        <v>2.475195382459958</v>
       </c>
       <c r="P18">
-        <v>0.892169334378174</v>
+        <v>0.1458876804428684</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1515004351017168</v>
+      </c>
+      <c r="R18">
+        <v>0.8580483425754419</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7237702883799386</v>
+        <v>0.6258046795696828</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05475096320752471</v>
+        <v>0.05794960036283214</v>
       </c>
       <c r="E19">
-        <v>0.1823219546410257</v>
+        <v>0.1759210718849928</v>
       </c>
       <c r="F19">
-        <v>0.875692275851236</v>
+        <v>0.8317066474762242</v>
       </c>
       <c r="G19">
-        <v>0.7590529018006862</v>
+        <v>0.7012222282452001</v>
       </c>
       <c r="H19">
-        <v>0.03068722789518574</v>
+        <v>0.02947398386927347</v>
       </c>
       <c r="I19">
-        <v>0.0128490170827753</v>
+        <v>0.009483031862455249</v>
       </c>
       <c r="J19">
-        <v>0.4880348668795449</v>
+        <v>0.5002125759497318</v>
       </c>
       <c r="K19">
-        <v>0.4639178929393601</v>
+        <v>0.3936483966572588</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1584157989091182</v>
       </c>
       <c r="M19">
-        <v>2.392765166206573</v>
+        <v>0.1375001650693228</v>
       </c>
       <c r="N19">
-        <v>0.2008993573021058</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1972925357251363</v>
+        <v>2.42607422332631</v>
       </c>
       <c r="P19">
-        <v>0.9061727683625596</v>
+        <v>0.2202806098443375</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.1883240052469262</v>
+      </c>
+      <c r="R19">
+        <v>0.8626547210081759</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.877388474300858</v>
+        <v>0.7441296664378569</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04922663478056677</v>
+        <v>0.05333800044865455</v>
       </c>
       <c r="E20">
-        <v>0.1573193055216162</v>
+        <v>0.1462057564373378</v>
       </c>
       <c r="F20">
-        <v>1.005762044598924</v>
+        <v>0.9399202112008425</v>
       </c>
       <c r="G20">
-        <v>0.8954891913346898</v>
+        <v>0.8300431817528278</v>
       </c>
       <c r="H20">
-        <v>0.002822420214909194</v>
+        <v>0.001979045330925189</v>
       </c>
       <c r="I20">
-        <v>0.01112434568916676</v>
+        <v>0.008320876570980573</v>
       </c>
       <c r="J20">
-        <v>0.5541721017893195</v>
+        <v>0.538408852759062</v>
       </c>
       <c r="K20">
-        <v>0.5389603069054232</v>
+        <v>0.4454012568369556</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1761251401131503</v>
       </c>
       <c r="M20">
-        <v>2.428467277545593</v>
+        <v>0.1589887430829791</v>
       </c>
       <c r="N20">
-        <v>0.3404468095125708</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2738884349527346</v>
+        <v>2.469865730012287</v>
       </c>
       <c r="P20">
-        <v>0.9297018966590631</v>
+        <v>0.3705393824360783</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2603014016652239</v>
+      </c>
+      <c r="R20">
+        <v>0.8674783680718177</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9934021747561417</v>
+        <v>0.842219027434254</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05219346330584074</v>
+        <v>0.0600487569964443</v>
       </c>
       <c r="E21">
-        <v>0.1689276039825156</v>
+        <v>0.1547287287214587</v>
       </c>
       <c r="F21">
-        <v>1.110289677227414</v>
+        <v>0.9922376608338936</v>
       </c>
       <c r="G21">
-        <v>0.9902685854700479</v>
+        <v>0.9983338424560202</v>
       </c>
       <c r="H21">
-        <v>0.001331294702705765</v>
+        <v>0.0008636567593816036</v>
       </c>
       <c r="I21">
-        <v>0.008770371951018596</v>
+        <v>0.006775870580121968</v>
       </c>
       <c r="J21">
-        <v>0.5922932987809304</v>
+        <v>0.4345218718066093</v>
       </c>
       <c r="K21">
-        <v>0.5514363017165884</v>
+        <v>0.4407813913164631</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1699536659033711</v>
       </c>
       <c r="M21">
-        <v>2.733179588209168</v>
+        <v>0.1633826566327201</v>
       </c>
       <c r="N21">
-        <v>0.394003934669044</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3130105754724539</v>
+        <v>2.721354948974522</v>
       </c>
       <c r="P21">
-        <v>0.8928582368951012</v>
+        <v>0.422700251232925</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2956078543371845</v>
+      </c>
+      <c r="R21">
+        <v>0.8247038743236526</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.067580026181645</v>
+        <v>0.9058165172087911</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05430178723413093</v>
+        <v>0.06490857769602343</v>
       </c>
       <c r="E22">
-        <v>0.1773719072155302</v>
+        <v>0.1613058252521835</v>
       </c>
       <c r="F22">
-        <v>1.17722813390094</v>
+        <v>1.0222967216407</v>
       </c>
       <c r="G22">
-        <v>1.050473921723636</v>
+        <v>1.116361982730751</v>
       </c>
       <c r="H22">
-        <v>0.0007341707678996112</v>
+        <v>0.0004461447232289029</v>
       </c>
       <c r="I22">
-        <v>0.007144262652694522</v>
+        <v>0.005541878491615471</v>
       </c>
       <c r="J22">
-        <v>0.6163898019456298</v>
+        <v>0.3677990612740984</v>
       </c>
       <c r="K22">
-        <v>0.5581962251334431</v>
+        <v>0.4363172608033814</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1655708541722092</v>
       </c>
       <c r="M22">
-        <v>2.93372667757032</v>
+        <v>0.1659529564263522</v>
       </c>
       <c r="N22">
-        <v>0.4212756810533449</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3356515744409023</v>
+        <v>2.881675367156049</v>
       </c>
       <c r="P22">
-        <v>0.8683415614261634</v>
+        <v>0.4480509892068198</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3157819672208646</v>
+      </c>
+      <c r="R22">
+        <v>0.7970302873152733</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.032567714174291</v>
+        <v>0.8753030478050619</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0530580738337747</v>
+        <v>0.06183869227756844</v>
       </c>
       <c r="E23">
-        <v>0.1727092198645845</v>
+        <v>0.1578665671475488</v>
       </c>
       <c r="F23">
-        <v>1.143470427727109</v>
+        <v>1.012612710609872</v>
       </c>
       <c r="G23">
-        <v>1.020531695763779</v>
+        <v>1.045330485264458</v>
       </c>
       <c r="H23">
-        <v>0.001025429313836534</v>
+        <v>0.000645029859507984</v>
       </c>
       <c r="I23">
-        <v>0.007637575163920829</v>
+        <v>0.005768715191850404</v>
       </c>
       <c r="J23">
-        <v>0.6046371440503151</v>
+        <v>0.4165142540204982</v>
       </c>
       <c r="K23">
-        <v>0.5568378885090439</v>
+        <v>0.4413699939432583</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1687753257488929</v>
       </c>
       <c r="M23">
-        <v>2.823797873302709</v>
+        <v>0.165681138015298</v>
       </c>
       <c r="N23">
-        <v>0.4057196126781548</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3240608197680004</v>
+        <v>2.800555840212184</v>
       </c>
       <c r="P23">
-        <v>0.8825865107456465</v>
+        <v>0.4343010126985121</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3056006731090477</v>
+      </c>
+      <c r="R23">
+        <v>0.8127713435300246</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8920262366636109</v>
+        <v>0.7558015687090744</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04853859848158493</v>
+        <v>0.0526189645170021</v>
       </c>
       <c r="E24">
-        <v>0.1556849027396066</v>
+        <v>0.1440802806299644</v>
       </c>
       <c r="F24">
-        <v>1.015203274206826</v>
+        <v>0.9484892206591979</v>
       </c>
       <c r="G24">
-        <v>0.9062153348195778</v>
+        <v>0.8387232405074485</v>
       </c>
       <c r="H24">
-        <v>0.002617671775874353</v>
+        <v>0.001790881709878178</v>
       </c>
       <c r="I24">
-        <v>0.01050617841504309</v>
+        <v>0.007625128519883617</v>
       </c>
       <c r="J24">
-        <v>0.5597555061936959</v>
+        <v>0.5444605699300524</v>
       </c>
       <c r="K24">
-        <v>0.548338331392543</v>
+        <v>0.4525650091969133</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1787928015628708</v>
       </c>
       <c r="M24">
-        <v>2.415185681153133</v>
+        <v>0.1616813317326979</v>
       </c>
       <c r="N24">
-        <v>0.3488021975339564</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.279387394130957</v>
+        <v>2.458128053778495</v>
       </c>
       <c r="P24">
-        <v>0.9358459622941702</v>
+        <v>0.3797541904779109</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2654732655091614</v>
+      </c>
+      <c r="R24">
+        <v>0.8712833145189824</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7394888057646369</v>
+        <v>0.6312659436683816</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04364517637893428</v>
+        <v>0.04626440886100625</v>
       </c>
       <c r="E25">
-        <v>0.1379655464588971</v>
+        <v>0.1265491711238251</v>
       </c>
       <c r="F25">
-        <v>0.8824997851015581</v>
+        <v>0.8332563310181342</v>
       </c>
       <c r="G25">
-        <v>0.7882658234229609</v>
+        <v>0.7254187256127835</v>
       </c>
       <c r="H25">
-        <v>0.005278069606963309</v>
+        <v>0.003853782351472712</v>
       </c>
       <c r="I25">
-        <v>0.01450178526324564</v>
+        <v>0.01041178967487877</v>
       </c>
       <c r="J25">
-        <v>0.5143082099455825</v>
+        <v>0.5179402631320613</v>
       </c>
       <c r="K25">
-        <v>0.5398928238558334</v>
+        <v>0.4544842368063975</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1864731305312333</v>
       </c>
       <c r="M25">
-        <v>1.979850783065473</v>
+        <v>0.1547476644970551</v>
       </c>
       <c r="N25">
-        <v>0.288085226390379</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2312389829732382</v>
+        <v>2.015160594751478</v>
       </c>
       <c r="P25">
-        <v>0.9958647252971939</v>
+        <v>0.3136088462906486</v>
       </c>
       <c r="Q25">
+        <v>0.220649397420619</v>
+      </c>
+      <c r="R25">
+        <v>0.9313270618465097</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
